--- a/実験/question_data2.xlsx
+++ b/実験/question_data2.xlsx
@@ -13,7 +13,7 @@
     <sheet name="検証データのみ" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1+2'!$A$1:$T$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1+2'!$A$1:$R$410</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">version1!$A$1:$V$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">version2!$A$1:$U$319</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="1332">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -5512,6 +5512,9 @@
   </si>
   <si>
     <t>あげる</t>
+  </si>
+  <si>
+    <t>あげる</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5775,6 +5778,49 @@
     <rPh sb="2" eb="3">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ちゃんねるの動画？ってどうやって見るんですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIFACT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>METHOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARTIFACT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのくらいの金額になるのでしょうか？</t>
+    <rPh sb="6" eb="8">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MONEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>METHOD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5831,7 +5877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5844,8 +5890,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5868,8 +5920,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5922,8 +5987,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5934,8 +6010,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="63">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -5988,6 +6066,17 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -15992,8 +16081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="G404" sqref="G404"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -24681,33 +24770,35 @@
       <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>985</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H255" s="5">
+      <c r="B255" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="H255" s="11">
+        <v>9</v>
+      </c>
+      <c r="I255" s="11">
+        <v>21</v>
+      </c>
+      <c r="J255" s="11">
+        <v>36</v>
+      </c>
+      <c r="K255" s="11">
         <v>4</v>
-      </c>
-      <c r="I255" s="5">
-        <v>0</v>
-      </c>
-      <c r="J255" s="5">
-        <v>63</v>
-      </c>
-      <c r="K255" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -26578,13 +26669,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>581</v>
+        <v>1322</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1170</v>
+        <v>1323</v>
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="4" t="s">
@@ -26594,7 +26685,7 @@
         <v>966</v>
       </c>
       <c r="H311" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I311" s="4">
         <v>0</v>
@@ -26659,7 +26750,7 @@
         <v>1179</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H313" s="4">
         <v>14</v>
@@ -26781,7 +26872,7 @@
         <v>1188</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1193</v>
+        <v>1324</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>1177</v>
@@ -26805,7 +26896,7 @@
         <v>36</v>
       </c>
       <c r="K317" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -26882,7 +26973,7 @@
         <v>591</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1193</v>
+        <v>1317</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>1180</v>
@@ -26904,7 +26995,7 @@
         <v>35</v>
       </c>
       <c r="K320" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -26948,7 +27039,7 @@
         <v>593</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1193</v>
+        <v>1325</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>1180</v>
@@ -26970,7 +27061,7 @@
         <v>35</v>
       </c>
       <c r="K322" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -26981,7 +27072,7 @@
         <v>1197</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1313</v>
+        <v>1326</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>1177</v>
@@ -27005,7 +27096,7 @@
         <v>63</v>
       </c>
       <c r="K323" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -27112,10 +27203,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>598</v>
+        <v>1327</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1245</v>
+        <v>1328</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>1182</v>
@@ -27139,7 +27230,7 @@
         <v>63</v>
       </c>
       <c r="K327" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -27150,7 +27241,7 @@
         <v>1206</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1218</v>
+        <v>1329</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>1203</v>
@@ -27174,7 +27265,7 @@
         <v>36</v>
       </c>
       <c r="K328" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -27218,7 +27309,7 @@
         <v>602</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>1203</v>
@@ -27253,7 +27344,7 @@
         <v>607</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1193</v>
+        <v>1324</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>1177</v>
@@ -27277,7 +27368,7 @@
         <v>36</v>
       </c>
       <c r="K331" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -27288,7 +27379,7 @@
         <v>610</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>1211</v>
@@ -27356,7 +27447,7 @@
         <v>612</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>1214</v>
@@ -27389,7 +27480,7 @@
         <v>613</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1218</v>
+        <v>1329</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>1203</v>
@@ -27413,7 +27504,7 @@
         <v>36</v>
       </c>
       <c r="K335" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -27424,7 +27515,7 @@
         <v>614</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>1219</v>
@@ -27527,7 +27618,7 @@
         <v>618</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>1170</v>
@@ -27593,7 +27684,7 @@
         <v>620</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>1182</v>
@@ -27628,7 +27719,7 @@
         <v>1229</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>1227</v>
@@ -27694,7 +27785,7 @@
         <v>623</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>1231</v>
@@ -27727,7 +27818,7 @@
         <v>624</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>1182</v>
@@ -27749,7 +27840,7 @@
         <v>63</v>
       </c>
       <c r="K345" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -27760,7 +27851,7 @@
         <v>626</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>1233</v>
@@ -27863,7 +27954,7 @@
         <v>629</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>1211</v>
@@ -27896,7 +27987,7 @@
         <v>630</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>1180</v>
@@ -27929,7 +28020,7 @@
         <v>631</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1218</v>
+        <v>1329</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>1203</v>
@@ -27953,7 +28044,7 @@
         <v>36</v>
       </c>
       <c r="K351" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -28337,7 +28428,7 @@
         <v>647</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>1219</v>
@@ -28370,7 +28461,7 @@
         <v>648</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>1246</v>
@@ -28438,7 +28529,7 @@
         <v>650</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1193</v>
+        <v>1317</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>1170</v>
@@ -28460,7 +28551,7 @@
         <v>36</v>
       </c>
       <c r="K366" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -28481,7 +28572,7 @@
         <v>1260</v>
       </c>
       <c r="G367" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H367" s="4">
         <v>13</v>
@@ -28504,7 +28595,7 @@
         <v>652</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>1211</v>
@@ -28603,7 +28694,7 @@
         <v>656</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>1170</v>
@@ -28625,7 +28716,7 @@
         <v>36</v>
       </c>
       <c r="K371" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -28636,7 +28727,7 @@
         <v>657</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1193</v>
+        <v>1317</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>1170</v>
@@ -28660,7 +28751,7 @@
         <v>69</v>
       </c>
       <c r="K372" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -28671,7 +28762,7 @@
         <v>658</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>1233</v>
@@ -28706,7 +28797,7 @@
         <v>659</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>1211</v>
@@ -28739,7 +28830,7 @@
         <v>660</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1193</v>
+        <v>1324</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>1177</v>
@@ -28763,7 +28854,7 @@
         <v>36</v>
       </c>
       <c r="K375" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -28774,7 +28865,7 @@
         <v>661</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>1264</v>
@@ -28807,7 +28898,7 @@
         <v>662</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>1177</v>
@@ -28908,7 +28999,7 @@
         <v>666</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>1182</v>
@@ -28917,7 +29008,7 @@
         <v>1237</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G380" s="4" t="s">
         <v>961</v>
@@ -28950,7 +29041,7 @@
       </c>
       <c r="E381" s="4"/>
       <c r="F381" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G381" s="4" t="s">
         <v>961</v>
@@ -28976,14 +29067,14 @@
         <v>668</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E382" s="4"/>
       <c r="F382" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G382" s="4" t="s">
         <v>960</v>
@@ -29016,7 +29107,7 @@
       </c>
       <c r="E383" s="4"/>
       <c r="F383" s="4" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G383" s="4" t="s">
         <v>961</v>
@@ -29042,14 +29133,14 @@
         <v>670</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E384" s="4"/>
       <c r="F384" s="4" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G384" s="4" t="s">
         <v>961</v>
@@ -29082,7 +29173,7 @@
       </c>
       <c r="E385" s="4"/>
       <c r="F385" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G385" s="4" t="s">
         <v>961</v>
@@ -29108,16 +29199,16 @@
         <v>673</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1176</v>
+        <v>1331</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G386" s="4" t="s">
         <v>958</v>
@@ -29132,7 +29223,7 @@
         <v>35</v>
       </c>
       <c r="K386" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -29143,14 +29234,14 @@
         <v>674</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>1182</v>
       </c>
       <c r="E387" s="4"/>
       <c r="F387" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G387" s="4" t="s">
         <v>971</v>
@@ -29176,14 +29267,14 @@
         <v>675</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>1227</v>
       </c>
       <c r="E388" s="4"/>
       <c r="F388" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G388" s="4" t="s">
         <v>961</v>
@@ -29209,7 +29300,7 @@
         <v>676</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1176</v>
+        <v>1331</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>1177</v>
@@ -29218,7 +29309,7 @@
         <v>1248</v>
       </c>
       <c r="F389" s="4" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G389" s="4" t="s">
         <v>961</v>
@@ -29233,7 +29324,7 @@
         <v>36</v>
       </c>
       <c r="K389" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -29244,16 +29335,16 @@
         <v>677</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>1233</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G390" s="4" t="s">
         <v>974</v>
@@ -29282,11 +29373,11 @@
         <v>1245</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E391" s="4"/>
       <c r="F391" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G391" s="4" t="s">
         <v>961</v>
@@ -29312,10 +29403,10 @@
         <v>679</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E392" s="4"/>
       <c r="F392" s="4" t="s">
@@ -29345,14 +29436,14 @@
         <v>680</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>1182</v>
       </c>
       <c r="E393" s="4"/>
       <c r="F393" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>961</v>
@@ -29378,14 +29469,14 @@
         <v>681</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E394" s="4"/>
       <c r="F394" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G394" s="4" t="s">
         <v>959</v>
@@ -29411,13 +29502,13 @@
         <v>682</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F395" s="4" t="s">
         <v>1196</v>
@@ -29453,7 +29544,7 @@
       </c>
       <c r="E396" s="4"/>
       <c r="F396" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G396" s="4" t="s">
         <v>961</v>
@@ -29482,13 +29573,13 @@
         <v>1193</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="G397" s="4" t="s">
         <v>958</v>
@@ -29520,10 +29611,10 @@
         <v>1177</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F398" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G398" s="4" t="s">
         <v>959</v>
@@ -29549,14 +29640,14 @@
         <v>686</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E399" s="4"/>
       <c r="F399" s="4" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G399" s="4" t="s">
         <v>961</v>
@@ -29589,7 +29680,7 @@
       </c>
       <c r="E400" s="4"/>
       <c r="F400" s="4" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G400" s="4" t="s">
         <v>83</v>
@@ -29681,14 +29772,14 @@
         <v>690</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>1222</v>
       </c>
       <c r="E403" s="4"/>
       <c r="F403" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G403" s="4" t="s">
         <v>963</v>
@@ -29721,7 +29812,7 @@
       </c>
       <c r="E404" s="4"/>
       <c r="F404" s="4" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G404" s="4" t="s">
         <v>961</v>
@@ -29750,13 +29841,13 @@
         <v>1218</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G405" s="4" t="s">
         <v>961</v>
@@ -29817,7 +29908,7 @@
         <v>694</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>1182</v>
@@ -29826,7 +29917,7 @@
         <v>1201</v>
       </c>
       <c r="F407" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G407" s="4" t="s">
         <v>959</v>
@@ -29852,14 +29943,14 @@
         <v>695</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>1211</v>
       </c>
       <c r="E408" s="4"/>
       <c r="F408" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G408" s="4" t="s">
         <v>961</v>
@@ -29891,10 +29982,10 @@
         <v>1177</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F409" s="4" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G409" s="4" t="s">
         <v>961</v>
@@ -29920,14 +30011,14 @@
         <v>697</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E410" s="4"/>
       <c r="F410" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G410" s="4" t="s">
         <v>961</v>
@@ -29946,7 +30037,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T410"/>
+  <autoFilter ref="A1:R410"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/実験/question_data2.xlsx
+++ b/実験/question_data2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13520" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="version1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11965" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12095" uniqueCount="1541">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -6736,9 +6736,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6861,7 +6864,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="104">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -6963,6 +6966,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="103" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -31850,8 +31856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="M311" sqref="M311:M440"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -63444,10 +63450,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K440"/>
+  <dimension ref="A1:M440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G425" sqref="G425"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="M312" sqref="M312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -63526,7 +63532,9 @@
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5">
+        <v>38</v>
+      </c>
       <c r="K2" s="5">
         <v>4</v>
       </c>
@@ -63559,7 +63567,9 @@
       <c r="I3" s="5">
         <v>17</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>65</v>
+      </c>
       <c r="K3" s="5">
         <v>0</v>
       </c>
@@ -63592,7 +63602,9 @@
       <c r="I4" s="5">
         <v>24</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5">
+        <v>40</v>
+      </c>
       <c r="K4" s="5">
         <v>2</v>
       </c>
@@ -63625,7 +63637,9 @@
       <c r="I5" s="5">
         <v>23</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>85</v>
+      </c>
       <c r="K5" s="5">
         <v>2</v>
       </c>
@@ -63658,7 +63672,9 @@
       <c r="I6" s="5">
         <v>17</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>67</v>
+      </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
@@ -63689,7 +63705,9 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <v>67</v>
+      </c>
       <c r="K7" s="5">
         <v>4</v>
       </c>
@@ -63722,7 +63740,9 @@
       <c r="I8" s="5">
         <v>21</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>67</v>
+      </c>
       <c r="K8" s="5">
         <v>2</v>
       </c>
@@ -63755,7 +63775,9 @@
       <c r="I9" s="5">
         <v>22</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>88</v>
+      </c>
       <c r="K9" s="5">
         <v>3</v>
       </c>
@@ -63786,7 +63808,9 @@
       <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <v>65</v>
+      </c>
       <c r="K10" s="5">
         <v>4</v>
       </c>
@@ -63819,7 +63843,9 @@
       <c r="I11" s="5">
         <v>23</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5">
+        <v>94</v>
+      </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
@@ -63852,7 +63878,9 @@
       <c r="I12" s="5">
         <v>28</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>81</v>
+      </c>
       <c r="K12" s="5">
         <v>3</v>
       </c>
@@ -63885,7 +63913,9 @@
       <c r="I13" s="5">
         <v>17</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>39</v>
+      </c>
       <c r="K13" s="5">
         <v>4</v>
       </c>
@@ -63918,7 +63948,9 @@
       <c r="I14" s="5">
         <v>23</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5">
+        <v>85</v>
+      </c>
       <c r="K14" s="5">
         <v>2</v>
       </c>
@@ -63951,7 +63983,9 @@
       <c r="I15" s="5">
         <v>17</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5">
+        <v>81</v>
+      </c>
       <c r="K15" s="7">
         <v>1</v>
       </c>
@@ -63984,7 +64018,9 @@
       <c r="I16" s="5">
         <v>28</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>86</v>
+      </c>
       <c r="K16" s="5">
         <v>4</v>
       </c>
@@ -64017,7 +64053,9 @@
       <c r="I17" s="5">
         <v>28</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5">
+        <v>94</v>
+      </c>
       <c r="K17" s="5">
         <v>4</v>
       </c>
@@ -64050,7 +64088,9 @@
       <c r="I18" s="5">
         <v>23</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5">
+        <v>85</v>
+      </c>
       <c r="K18" s="5">
         <v>2</v>
       </c>
@@ -64083,7 +64123,9 @@
       <c r="I19" s="5">
         <v>17</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>71</v>
+      </c>
       <c r="K19" s="5">
         <v>1</v>
       </c>
@@ -64114,7 +64156,9 @@
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>87</v>
+      </c>
       <c r="K20" s="5">
         <v>6</v>
       </c>
@@ -64145,7 +64189,9 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5">
+        <v>87</v>
+      </c>
       <c r="K21" s="5">
         <v>0</v>
       </c>
@@ -64178,7 +64224,9 @@
       <c r="I22" s="5">
         <v>28</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5">
+        <v>81</v>
+      </c>
       <c r="K22" s="5">
         <v>1</v>
       </c>
@@ -64211,7 +64259,9 @@
       <c r="I23" s="5">
         <v>21</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5">
+        <v>40</v>
+      </c>
       <c r="K23" s="5">
         <v>2</v>
       </c>
@@ -64244,7 +64294,9 @@
       <c r="I24" s="5">
         <v>28</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5">
+        <v>87</v>
+      </c>
       <c r="K24" s="5">
         <v>6</v>
       </c>
@@ -64277,7 +64329,9 @@
       <c r="I25" s="5">
         <v>17</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5">
+        <v>81</v>
+      </c>
       <c r="K25" s="5">
         <v>1</v>
       </c>
@@ -64310,7 +64364,9 @@
       <c r="I26" s="5">
         <v>28</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>72</v>
+      </c>
       <c r="K26" s="5">
         <v>6</v>
       </c>
@@ -64343,7 +64399,9 @@
       <c r="I27" s="5">
         <v>22</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5">
+        <v>88</v>
+      </c>
       <c r="K27" s="5">
         <v>3</v>
       </c>
@@ -64376,7 +64434,9 @@
       <c r="I28" s="5">
         <v>21</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>81</v>
+      </c>
       <c r="K28" s="5">
         <v>2</v>
       </c>
@@ -64409,7 +64469,9 @@
       <c r="I29" s="5">
         <v>25</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5">
+        <v>98</v>
+      </c>
       <c r="K29" s="5">
         <v>4</v>
       </c>
@@ -64440,7 +64502,9 @@
       <c r="I30" s="5">
         <v>0</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5">
+        <v>65</v>
+      </c>
       <c r="K30" s="5">
         <v>4</v>
       </c>
@@ -64473,7 +64537,9 @@
       <c r="I31" s="5">
         <v>28</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5">
+        <v>78</v>
+      </c>
       <c r="K31" s="5">
         <v>3</v>
       </c>
@@ -64506,7 +64572,9 @@
       <c r="I32" s="5">
         <v>28</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5">
+        <v>81</v>
+      </c>
       <c r="K32" s="5">
         <v>1</v>
       </c>
@@ -64539,7 +64607,9 @@
       <c r="I33" s="5">
         <v>17</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5">
+        <v>65</v>
+      </c>
       <c r="K33" s="5">
         <v>4</v>
       </c>
@@ -64572,7 +64642,9 @@
       <c r="I34" s="5">
         <v>21</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5">
+        <v>44</v>
+      </c>
       <c r="K34" s="5">
         <v>2</v>
       </c>
@@ -64605,7 +64677,9 @@
       <c r="I35" s="5">
         <v>21</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="5">
+        <v>33</v>
+      </c>
       <c r="K35" s="5">
         <v>2</v>
       </c>
@@ -64638,7 +64712,9 @@
       <c r="I36" s="5">
         <v>23</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5">
+        <v>85</v>
+      </c>
       <c r="K36" s="5">
         <v>2</v>
       </c>
@@ -64671,7 +64747,9 @@
       <c r="I37" s="5">
         <v>21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5">
+        <v>87</v>
+      </c>
       <c r="K37" s="5">
         <v>6</v>
       </c>
@@ -64704,7 +64782,9 @@
       <c r="I38" s="5">
         <v>17</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5">
+        <v>65</v>
+      </c>
       <c r="K38" s="5">
         <v>4</v>
       </c>
@@ -64737,7 +64817,9 @@
       <c r="I39" s="5">
         <v>28</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5">
+        <v>81</v>
+      </c>
       <c r="K39" s="5">
         <v>4</v>
       </c>
@@ -64770,7 +64852,9 @@
       <c r="I40" s="5">
         <v>17</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5">
+        <v>85</v>
+      </c>
       <c r="K40" s="5">
         <v>5</v>
       </c>
@@ -64803,7 +64887,9 @@
       <c r="I41" s="5">
         <v>23</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5">
+        <v>85</v>
+      </c>
       <c r="K41" s="5">
         <v>2</v>
       </c>
@@ -64836,7 +64922,9 @@
       <c r="I42" s="5">
         <v>21</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <v>65</v>
+      </c>
       <c r="K42" s="5">
         <v>2</v>
       </c>
@@ -64867,7 +64955,9 @@
       <c r="I43" s="5">
         <v>0</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5">
+        <v>67</v>
+      </c>
       <c r="K43" s="5">
         <v>4</v>
       </c>
@@ -64900,7 +64990,9 @@
       <c r="I44" s="5">
         <v>23</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5">
+        <v>33</v>
+      </c>
       <c r="K44" s="5">
         <v>2</v>
       </c>
@@ -64933,7 +65025,9 @@
       <c r="I45" s="5">
         <v>21</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5">
+        <v>86</v>
+      </c>
       <c r="K45" s="5">
         <v>3</v>
       </c>
@@ -64964,7 +65058,9 @@
       <c r="I46" s="5">
         <v>0</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5">
+        <v>87</v>
+      </c>
       <c r="K46" s="5">
         <v>5</v>
       </c>
@@ -64997,7 +65093,9 @@
       <c r="I47" s="5">
         <v>17</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <v>71</v>
+      </c>
       <c r="K47" s="5">
         <v>4</v>
       </c>
@@ -65030,7 +65128,9 @@
       <c r="I48" s="5">
         <v>17</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5">
+        <v>71</v>
+      </c>
       <c r="K48" s="5">
         <v>1</v>
       </c>
@@ -65063,7 +65163,9 @@
       <c r="I49" s="5">
         <v>21</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5">
+        <v>56</v>
+      </c>
       <c r="K49" s="5">
         <v>1</v>
       </c>
@@ -65094,7 +65196,9 @@
       <c r="I50" s="5">
         <v>0</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5">
+        <v>87</v>
+      </c>
       <c r="K50" s="5">
         <v>5</v>
       </c>
@@ -65127,7 +65231,9 @@
       <c r="I51" s="5">
         <v>28</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5">
+        <v>81</v>
+      </c>
       <c r="K51" s="5">
         <v>1</v>
       </c>
@@ -65160,7 +65266,9 @@
       <c r="I52" s="5">
         <v>18</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5">
+        <v>38</v>
+      </c>
       <c r="K52" s="5">
         <v>2</v>
       </c>
@@ -65191,7 +65299,9 @@
       <c r="I53" s="5">
         <v>0</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5">
+        <v>78</v>
+      </c>
       <c r="K53" s="5">
         <v>6</v>
       </c>
@@ -65224,7 +65334,9 @@
       <c r="I54" s="5">
         <v>23</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5">
+        <v>48</v>
+      </c>
       <c r="K54" s="5">
         <v>2</v>
       </c>
@@ -65257,7 +65369,9 @@
       <c r="I55" s="5">
         <v>23</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="5">
+        <v>81</v>
+      </c>
       <c r="K55" s="5">
         <v>4</v>
       </c>
@@ -65288,7 +65402,9 @@
       <c r="I56" s="5">
         <v>0</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5">
+        <v>50</v>
+      </c>
       <c r="K56" s="5">
         <v>5</v>
       </c>
@@ -65321,7 +65437,9 @@
       <c r="I57" s="5">
         <v>23</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5">
+        <v>106</v>
+      </c>
       <c r="K57" s="5">
         <v>3</v>
       </c>
@@ -65354,7 +65472,9 @@
       <c r="I58" s="5">
         <v>24</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5">
+        <v>85</v>
+      </c>
       <c r="K58" s="5">
         <v>2</v>
       </c>
@@ -65385,7 +65505,9 @@
       <c r="I59" s="5">
         <v>0</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5">
+        <v>85</v>
+      </c>
       <c r="K59" s="5">
         <v>5</v>
       </c>
@@ -65418,7 +65540,9 @@
       <c r="I60" s="5">
         <v>23</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5">
+        <v>110</v>
+      </c>
       <c r="K60" s="5">
         <v>5</v>
       </c>
@@ -65451,7 +65575,9 @@
       <c r="I61" s="5">
         <v>22</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5">
+        <v>81</v>
+      </c>
       <c r="K61" s="5">
         <v>1</v>
       </c>
@@ -65484,7 +65610,9 @@
       <c r="I62" s="5">
         <v>28</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5">
+        <v>96</v>
+      </c>
       <c r="K62" s="5">
         <v>3</v>
       </c>
@@ -65515,7 +65643,9 @@
       <c r="I63" s="5">
         <v>0</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5">
+        <v>81</v>
+      </c>
       <c r="K63" s="5">
         <v>4</v>
       </c>
@@ -65548,7 +65678,9 @@
       <c r="I64" s="5">
         <v>21</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5">
+        <v>81</v>
+      </c>
       <c r="K64" s="5">
         <v>3</v>
       </c>
@@ -65581,7 +65713,9 @@
       <c r="I65" s="5">
         <v>23</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5">
+        <v>94</v>
+      </c>
       <c r="K65" s="5">
         <v>1</v>
       </c>
@@ -65614,7 +65748,9 @@
       <c r="I66" s="5">
         <v>17</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5">
+        <v>54</v>
+      </c>
       <c r="K66" s="5">
         <v>4</v>
       </c>
@@ -65647,7 +65783,9 @@
       <c r="I67" s="5">
         <v>22</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5">
+        <v>55</v>
+      </c>
       <c r="K67" s="5">
         <v>1</v>
       </c>
@@ -65680,7 +65818,9 @@
       <c r="I68" s="5">
         <v>21</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5">
+        <v>81</v>
+      </c>
       <c r="K68" s="5">
         <v>2</v>
       </c>
@@ -65713,7 +65853,9 @@
       <c r="I69" s="5">
         <v>22</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5">
+        <v>90</v>
+      </c>
       <c r="K69" s="5">
         <v>1</v>
       </c>
@@ -65746,7 +65888,9 @@
       <c r="I70" s="5">
         <v>17</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5">
+        <v>90</v>
+      </c>
       <c r="K70" s="5">
         <v>1</v>
       </c>
@@ -65779,7 +65923,9 @@
       <c r="I71" s="5">
         <v>23</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5">
+        <v>79</v>
+      </c>
       <c r="K71" s="5">
         <v>5</v>
       </c>
@@ -65812,7 +65958,9 @@
       <c r="I72" s="5">
         <v>21</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5">
+        <v>109</v>
+      </c>
       <c r="K72" s="5">
         <v>2</v>
       </c>
@@ -65845,7 +65993,9 @@
       <c r="I73" s="5">
         <v>21</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5">
+        <v>81</v>
+      </c>
       <c r="K73" s="5">
         <v>2</v>
       </c>
@@ -65878,7 +66028,9 @@
       <c r="I74" s="5">
         <v>23</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5">
+        <v>71</v>
+      </c>
       <c r="K74" s="5">
         <v>1</v>
       </c>
@@ -65911,7 +66063,9 @@
       <c r="I75" s="5">
         <v>17</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5">
+        <v>81</v>
+      </c>
       <c r="K75" s="5">
         <v>5</v>
       </c>
@@ -65942,7 +66096,9 @@
       <c r="I76" s="5">
         <v>0</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5">
+        <v>44</v>
+      </c>
       <c r="K76" s="5">
         <v>4</v>
       </c>
@@ -65975,7 +66131,9 @@
       <c r="I77" s="5">
         <v>23</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5">
+        <v>94</v>
+      </c>
       <c r="K77" s="5">
         <v>2</v>
       </c>
@@ -66006,7 +66164,9 @@
       <c r="I78" s="5">
         <v>0</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="5">
+        <v>94</v>
+      </c>
       <c r="K78" s="5">
         <v>4</v>
       </c>
@@ -66039,7 +66199,9 @@
       <c r="I79" s="5">
         <v>21</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="5">
+        <v>81</v>
+      </c>
       <c r="K79" s="5">
         <v>2</v>
       </c>
@@ -66072,7 +66234,9 @@
       <c r="I80" s="5">
         <v>21</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5">
+        <v>40</v>
+      </c>
       <c r="K80" s="5">
         <v>2</v>
       </c>
@@ -66105,7 +66269,9 @@
       <c r="I81" s="5">
         <v>21</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5">
+        <v>79</v>
+      </c>
       <c r="K81" s="5">
         <v>2</v>
       </c>
@@ -66136,7 +66302,9 @@
       <c r="I82" s="5">
         <v>0</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5">
+        <v>87</v>
+      </c>
       <c r="K82" s="5">
         <v>4</v>
       </c>
@@ -66169,7 +66337,9 @@
       <c r="I83" s="5">
         <v>21</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5">
+        <v>87</v>
+      </c>
       <c r="K83" s="5">
         <v>6</v>
       </c>
@@ -66202,7 +66372,9 @@
       <c r="I84" s="5">
         <v>21</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5">
+        <v>86</v>
+      </c>
       <c r="K84" s="5">
         <v>6</v>
       </c>
@@ -66235,7 +66407,9 @@
       <c r="I85" s="5">
         <v>23</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="5">
+        <v>85</v>
+      </c>
       <c r="K85" s="5">
         <v>2</v>
       </c>
@@ -66268,7 +66442,9 @@
       <c r="I86" s="5">
         <v>23</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="5">
+        <v>93</v>
+      </c>
       <c r="K86" s="5">
         <v>3</v>
       </c>
@@ -66301,7 +66477,9 @@
       <c r="I87" s="5">
         <v>28</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5">
+        <v>67</v>
+      </c>
       <c r="K87" s="5">
         <v>1</v>
       </c>
@@ -66334,7 +66512,9 @@
       <c r="I88" s="5">
         <v>21</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="5">
+        <v>98</v>
+      </c>
       <c r="K88" s="5">
         <v>2</v>
       </c>
@@ -66365,7 +66545,9 @@
       <c r="I89" s="5">
         <v>0</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5">
+        <v>98</v>
+      </c>
       <c r="K89" s="5">
         <v>4</v>
       </c>
@@ -66398,7 +66580,9 @@
       <c r="I90" s="5">
         <v>17</v>
       </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="5">
+        <v>81</v>
+      </c>
       <c r="K90" s="5">
         <v>1</v>
       </c>
@@ -66431,7 +66615,9 @@
       <c r="I91" s="5">
         <v>23</v>
       </c>
-      <c r="J91" s="5"/>
+      <c r="J91" s="5">
+        <v>42</v>
+      </c>
       <c r="K91" s="5">
         <v>2</v>
       </c>
@@ -66464,7 +66650,9 @@
       <c r="I92" s="5">
         <v>21</v>
       </c>
-      <c r="J92" s="5"/>
+      <c r="J92" s="5">
+        <v>67</v>
+      </c>
       <c r="K92" s="5">
         <v>2</v>
       </c>
@@ -66497,7 +66685,9 @@
       <c r="I93" s="5">
         <v>23</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5">
+        <v>94</v>
+      </c>
       <c r="K93" s="5">
         <v>2</v>
       </c>
@@ -66530,7 +66720,9 @@
       <c r="I94" s="5">
         <v>23</v>
       </c>
-      <c r="J94" s="5"/>
+      <c r="J94" s="5">
+        <v>71</v>
+      </c>
       <c r="K94" s="5">
         <v>1</v>
       </c>
@@ -66563,7 +66755,9 @@
       <c r="I95" s="5">
         <v>28</v>
       </c>
-      <c r="J95" s="5"/>
+      <c r="J95" s="5">
+        <v>81</v>
+      </c>
       <c r="K95" s="5">
         <v>1</v>
       </c>
@@ -66596,7 +66790,9 @@
       <c r="I96" s="5">
         <v>23</v>
       </c>
-      <c r="J96" s="5"/>
+      <c r="J96" s="5">
+        <v>86</v>
+      </c>
       <c r="K96" s="5">
         <v>1</v>
       </c>
@@ -66627,7 +66823,9 @@
       <c r="I97" s="5">
         <v>0</v>
       </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="5">
+        <v>85</v>
+      </c>
       <c r="K97" s="5">
         <v>5</v>
       </c>
@@ -66660,7 +66858,9 @@
       <c r="I98" s="5">
         <v>28</v>
       </c>
-      <c r="J98" s="5"/>
+      <c r="J98" s="5">
+        <v>53</v>
+      </c>
       <c r="K98" s="5">
         <v>1</v>
       </c>
@@ -66693,7 +66893,9 @@
       <c r="I99" s="5">
         <v>17</v>
       </c>
-      <c r="J99" s="5"/>
+      <c r="J99" s="5">
+        <v>71</v>
+      </c>
       <c r="K99" s="5">
         <v>1</v>
       </c>
@@ -66726,7 +66928,9 @@
       <c r="I100" s="5">
         <v>23</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="5">
+        <v>86</v>
+      </c>
       <c r="K100" s="5">
         <v>1</v>
       </c>
@@ -66759,7 +66963,9 @@
       <c r="I101" s="5">
         <v>28</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5">
+        <v>47</v>
+      </c>
       <c r="K101" s="5">
         <v>2</v>
       </c>
@@ -66792,7 +66998,9 @@
       <c r="I102" s="5">
         <v>28</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="5">
+        <v>29</v>
+      </c>
       <c r="K102" s="5">
         <v>2</v>
       </c>
@@ -66825,7 +67033,9 @@
       <c r="I103" s="5">
         <v>26</v>
       </c>
-      <c r="J103" s="5"/>
+      <c r="J103" s="5">
+        <v>94</v>
+      </c>
       <c r="K103" s="5">
         <v>2</v>
       </c>
@@ -66858,7 +67068,9 @@
       <c r="I104" s="5">
         <v>17</v>
       </c>
-      <c r="J104" s="5"/>
+      <c r="J104" s="5">
+        <v>81</v>
+      </c>
       <c r="K104" s="5">
         <v>0</v>
       </c>
@@ -66891,7 +67103,9 @@
       <c r="I105" s="5">
         <v>28</v>
       </c>
-      <c r="J105" s="5"/>
+      <c r="J105" s="5">
+        <v>88</v>
+      </c>
       <c r="K105" s="5">
         <v>0</v>
       </c>
@@ -66924,7 +67138,9 @@
       <c r="I106" s="5">
         <v>17</v>
       </c>
-      <c r="J106" s="5"/>
+      <c r="J106" s="5">
+        <v>52</v>
+      </c>
       <c r="K106" s="5">
         <v>0</v>
       </c>
@@ -66957,7 +67173,9 @@
       <c r="I107" s="5">
         <v>17</v>
       </c>
-      <c r="J107" s="5"/>
+      <c r="J107" s="5">
+        <v>94</v>
+      </c>
       <c r="K107" s="5">
         <v>0</v>
       </c>
@@ -66990,7 +67208,9 @@
       <c r="I108" s="5">
         <v>28</v>
       </c>
-      <c r="J108" s="5"/>
+      <c r="J108" s="5">
+        <v>81</v>
+      </c>
       <c r="K108" s="5">
         <v>0</v>
       </c>
@@ -67023,7 +67243,9 @@
       <c r="I109" s="5">
         <v>17</v>
       </c>
-      <c r="J109" s="5"/>
+      <c r="J109" s="5">
+        <v>85</v>
+      </c>
       <c r="K109" s="5">
         <v>0</v>
       </c>
@@ -67056,7 +67278,9 @@
       <c r="I110" s="5">
         <v>28</v>
       </c>
-      <c r="J110" s="5"/>
+      <c r="J110" s="5">
+        <v>55</v>
+      </c>
       <c r="K110" s="5">
         <v>1</v>
       </c>
@@ -67089,7 +67313,9 @@
       <c r="I111" s="5">
         <v>23</v>
       </c>
-      <c r="J111" s="5"/>
+      <c r="J111" s="5">
+        <v>32</v>
+      </c>
       <c r="K111" s="5">
         <v>2</v>
       </c>
@@ -67120,7 +67346,9 @@
       <c r="I112" s="5">
         <v>0</v>
       </c>
-      <c r="J112" s="5"/>
+      <c r="J112" s="5">
+        <v>81</v>
+      </c>
       <c r="K112" s="5">
         <v>8</v>
       </c>
@@ -67151,7 +67379,9 @@
       <c r="I113" s="5">
         <v>0</v>
       </c>
-      <c r="J113" s="5"/>
+      <c r="J113" s="5">
+        <v>63</v>
+      </c>
       <c r="K113" s="5">
         <v>9</v>
       </c>
@@ -67184,7 +67414,9 @@
       <c r="I114" s="5">
         <v>28</v>
       </c>
-      <c r="J114" s="5"/>
+      <c r="J114" s="5">
+        <v>81</v>
+      </c>
       <c r="K114" s="5">
         <v>7</v>
       </c>
@@ -67215,7 +67447,9 @@
       <c r="I115" s="5">
         <v>0</v>
       </c>
-      <c r="J115" s="5"/>
+      <c r="J115" s="5">
+        <v>85</v>
+      </c>
       <c r="K115" s="5">
         <v>7</v>
       </c>
@@ -67248,7 +67482,9 @@
       <c r="I116" s="5">
         <v>27</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="5">
+        <v>83</v>
+      </c>
       <c r="K116" s="5">
         <v>4</v>
       </c>
@@ -67279,7 +67515,9 @@
       <c r="I117" s="5">
         <v>0</v>
       </c>
-      <c r="J117" s="5"/>
+      <c r="J117" s="5">
+        <v>105</v>
+      </c>
       <c r="K117" s="5">
         <v>3</v>
       </c>
@@ -67312,7 +67550,9 @@
       <c r="I118" s="5">
         <v>21</v>
       </c>
-      <c r="J118" s="5"/>
+      <c r="J118" s="5">
+        <v>86</v>
+      </c>
       <c r="K118" s="5">
         <v>2</v>
       </c>
@@ -67343,7 +67583,9 @@
       <c r="I119" s="5">
         <v>0</v>
       </c>
-      <c r="J119" s="5"/>
+      <c r="J119" s="5">
+        <v>92</v>
+      </c>
       <c r="K119" s="5">
         <v>7</v>
       </c>
@@ -67376,7 +67618,9 @@
       <c r="I120" s="5">
         <v>17</v>
       </c>
-      <c r="J120" s="5"/>
+      <c r="J120" s="5">
+        <v>85</v>
+      </c>
       <c r="K120" s="5">
         <v>0</v>
       </c>
@@ -67407,7 +67651,9 @@
       <c r="I121" s="5">
         <v>0</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5">
+        <v>81</v>
+      </c>
       <c r="K121" s="5">
         <v>8</v>
       </c>
@@ -67438,7 +67684,9 @@
       <c r="I122" s="5">
         <v>0</v>
       </c>
-      <c r="J122" s="5"/>
+      <c r="J122" s="5">
+        <v>72</v>
+      </c>
       <c r="K122" s="5">
         <v>3</v>
       </c>
@@ -67471,7 +67719,9 @@
       <c r="I123" s="5">
         <v>16</v>
       </c>
-      <c r="J123" s="5"/>
+      <c r="J123" s="5">
+        <v>85</v>
+      </c>
       <c r="K123" s="5">
         <v>8</v>
       </c>
@@ -67504,7 +67754,9 @@
       <c r="I124" s="5">
         <v>21</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5">
+        <v>86</v>
+      </c>
       <c r="K124" s="5">
         <v>2</v>
       </c>
@@ -67535,7 +67787,9 @@
       <c r="I125" s="5">
         <v>0</v>
       </c>
-      <c r="J125" s="5"/>
+      <c r="J125" s="5">
+        <v>81</v>
+      </c>
       <c r="K125" s="5">
         <v>8</v>
       </c>
@@ -67566,7 +67820,9 @@
       <c r="I126" s="5">
         <v>0</v>
       </c>
-      <c r="J126" s="5"/>
+      <c r="J126" s="5">
+        <v>81</v>
+      </c>
       <c r="K126" s="5">
         <v>8</v>
       </c>
@@ -67597,7 +67853,9 @@
       <c r="I127" s="5">
         <v>0</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5">
+        <v>50</v>
+      </c>
       <c r="K127" s="5">
         <v>7</v>
       </c>
@@ -67628,7 +67886,9 @@
       <c r="I128" s="5">
         <v>0</v>
       </c>
-      <c r="J128" s="5"/>
+      <c r="J128" s="5">
+        <v>47</v>
+      </c>
       <c r="K128" s="5">
         <v>4</v>
       </c>
@@ -67659,7 +67919,9 @@
       <c r="I129" s="5">
         <v>0</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5">
+        <v>94</v>
+      </c>
       <c r="K129" s="5">
         <v>4</v>
       </c>
@@ -67690,7 +67952,9 @@
       <c r="I130" s="5">
         <v>0</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5">
+        <v>52</v>
+      </c>
       <c r="K130" s="5">
         <v>7</v>
       </c>
@@ -67721,7 +67985,9 @@
       <c r="I131" s="5">
         <v>0</v>
       </c>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5">
+        <v>81</v>
+      </c>
       <c r="K131" s="5">
         <v>8</v>
       </c>
@@ -67752,7 +68018,9 @@
       <c r="I132" s="5">
         <v>0</v>
       </c>
-      <c r="J132" s="5"/>
+      <c r="J132" s="5">
+        <v>81</v>
+      </c>
       <c r="K132" s="5">
         <v>8</v>
       </c>
@@ -67785,7 +68053,9 @@
       <c r="I133" s="5">
         <v>16</v>
       </c>
-      <c r="J133" s="5"/>
+      <c r="J133" s="5">
+        <v>87</v>
+      </c>
       <c r="K133" s="5">
         <v>3</v>
       </c>
@@ -67818,7 +68088,9 @@
       <c r="I134" s="5">
         <v>23</v>
       </c>
-      <c r="J134" s="5"/>
+      <c r="J134" s="5">
+        <v>74</v>
+      </c>
       <c r="K134" s="5">
         <v>8</v>
       </c>
@@ -67849,7 +68121,9 @@
       <c r="I135" s="5">
         <v>0</v>
       </c>
-      <c r="J135" s="5"/>
+      <c r="J135" s="5">
+        <v>39</v>
+      </c>
       <c r="K135" s="5">
         <v>7</v>
       </c>
@@ -67882,7 +68156,9 @@
       <c r="I136" s="5">
         <v>16</v>
       </c>
-      <c r="J136" s="5"/>
+      <c r="J136" s="5">
+        <v>100</v>
+      </c>
       <c r="K136" s="5">
         <v>8</v>
       </c>
@@ -67913,7 +68189,9 @@
       <c r="I137" s="5">
         <v>0</v>
       </c>
-      <c r="J137" s="5"/>
+      <c r="J137" s="5">
+        <v>94</v>
+      </c>
       <c r="K137" s="5">
         <v>8</v>
       </c>
@@ -67944,7 +68222,9 @@
       <c r="I138" s="5">
         <v>0</v>
       </c>
-      <c r="J138" s="5"/>
+      <c r="J138" s="5">
+        <v>66</v>
+      </c>
       <c r="K138" s="5">
         <v>8</v>
       </c>
@@ -67977,7 +68257,9 @@
       <c r="I139" s="5">
         <v>19</v>
       </c>
-      <c r="J139" s="5"/>
+      <c r="J139" s="5">
+        <v>81</v>
+      </c>
       <c r="K139" s="5">
         <v>6</v>
       </c>
@@ -68010,7 +68292,9 @@
       <c r="I140" s="5">
         <v>24</v>
       </c>
-      <c r="J140" s="5"/>
+      <c r="J140" s="5">
+        <v>85</v>
+      </c>
       <c r="K140" s="5">
         <v>9</v>
       </c>
@@ -68041,7 +68325,9 @@
       <c r="I141" s="5">
         <v>0</v>
       </c>
-      <c r="J141" s="5"/>
+      <c r="J141" s="5">
+        <v>98</v>
+      </c>
       <c r="K141" s="5">
         <v>7</v>
       </c>
@@ -68074,7 +68360,9 @@
       <c r="I142" s="5">
         <v>23</v>
       </c>
-      <c r="J142" s="5"/>
+      <c r="J142" s="5">
+        <v>81</v>
+      </c>
       <c r="K142" s="5">
         <v>9</v>
       </c>
@@ -68105,7 +68393,9 @@
       <c r="I143" s="5">
         <v>0</v>
       </c>
-      <c r="J143" s="5"/>
+      <c r="J143" s="5">
+        <v>81</v>
+      </c>
       <c r="K143" s="5">
         <v>8</v>
       </c>
@@ -68136,7 +68426,9 @@
       <c r="I144" s="5">
         <v>0</v>
       </c>
-      <c r="J144" s="5"/>
+      <c r="J144" s="5">
+        <v>81</v>
+      </c>
       <c r="K144" s="5">
         <v>8</v>
       </c>
@@ -68167,7 +68459,9 @@
       <c r="I145" s="5">
         <v>0</v>
       </c>
-      <c r="J145" s="5"/>
+      <c r="J145" s="5">
+        <v>97</v>
+      </c>
       <c r="K145" s="5">
         <v>9</v>
       </c>
@@ -68198,7 +68492,9 @@
       <c r="I146" s="5">
         <v>0</v>
       </c>
-      <c r="J146" s="5"/>
+      <c r="J146" s="5">
+        <v>34</v>
+      </c>
       <c r="K146" s="5">
         <v>9</v>
       </c>
@@ -68229,7 +68525,9 @@
       <c r="I147" s="5">
         <v>0</v>
       </c>
-      <c r="J147" s="5"/>
+      <c r="J147" s="5">
+        <v>52</v>
+      </c>
       <c r="K147" s="5">
         <v>9</v>
       </c>
@@ -68262,7 +68560,9 @@
       <c r="I148" s="5">
         <v>22</v>
       </c>
-      <c r="J148" s="5"/>
+      <c r="J148" s="5">
+        <v>88</v>
+      </c>
       <c r="K148" s="5">
         <v>3</v>
       </c>
@@ -68295,7 +68595,9 @@
       <c r="I149" s="5">
         <v>21</v>
       </c>
-      <c r="J149" s="5"/>
+      <c r="J149" s="5">
+        <v>81</v>
+      </c>
       <c r="K149" s="5">
         <v>3</v>
       </c>
@@ -68328,7 +68630,9 @@
       <c r="I150" s="5">
         <v>17</v>
       </c>
-      <c r="J150" s="5"/>
+      <c r="J150" s="5">
+        <v>85</v>
+      </c>
       <c r="K150" s="5">
         <v>3</v>
       </c>
@@ -68361,7 +68665,9 @@
       <c r="I151" s="5">
         <v>22</v>
       </c>
-      <c r="J151" s="5"/>
+      <c r="J151" s="5">
+        <v>97</v>
+      </c>
       <c r="K151" s="5">
         <v>9</v>
       </c>
@@ -68392,7 +68698,9 @@
       <c r="I152" s="5">
         <v>0</v>
       </c>
-      <c r="J152" s="5"/>
+      <c r="J152" s="5">
+        <v>87</v>
+      </c>
       <c r="K152" s="5">
         <v>8</v>
       </c>
@@ -68423,7 +68731,9 @@
       <c r="I153" s="5">
         <v>0</v>
       </c>
-      <c r="J153" s="5"/>
+      <c r="J153" s="5">
+        <v>101</v>
+      </c>
       <c r="K153" s="5">
         <v>8</v>
       </c>
@@ -68456,7 +68766,9 @@
       <c r="I154" s="5">
         <v>17</v>
       </c>
-      <c r="J154" s="5"/>
+      <c r="J154" s="5">
+        <v>75</v>
+      </c>
       <c r="K154" s="5">
         <v>0</v>
       </c>
@@ -68487,7 +68799,9 @@
       <c r="I155" s="5">
         <v>0</v>
       </c>
-      <c r="J155" s="5"/>
+      <c r="J155" s="5">
+        <v>105</v>
+      </c>
       <c r="K155" s="5">
         <v>3</v>
       </c>
@@ -68518,7 +68832,9 @@
       <c r="I156" s="5">
         <v>0</v>
       </c>
-      <c r="J156" s="5"/>
+      <c r="J156" s="5">
+        <v>91</v>
+      </c>
       <c r="K156" s="5">
         <v>8</v>
       </c>
@@ -68549,7 +68865,9 @@
       <c r="I157" s="5">
         <v>0</v>
       </c>
-      <c r="J157" s="5"/>
+      <c r="J157" s="5">
+        <v>81</v>
+      </c>
       <c r="K157" s="5">
         <v>8</v>
       </c>
@@ -68580,7 +68898,9 @@
       <c r="I158" s="5">
         <v>0</v>
       </c>
-      <c r="J158" s="5"/>
+      <c r="J158" s="5">
+        <v>73</v>
+      </c>
       <c r="K158" s="5">
         <v>7</v>
       </c>
@@ -68613,7 +68933,9 @@
       <c r="I159" s="5">
         <v>28</v>
       </c>
-      <c r="J159" s="5"/>
+      <c r="J159" s="5">
+        <v>105</v>
+      </c>
       <c r="K159" s="5">
         <v>3</v>
       </c>
@@ -68644,7 +68966,9 @@
       <c r="I160" s="5">
         <v>0</v>
       </c>
-      <c r="J160" s="5"/>
+      <c r="J160" s="5">
+        <v>75</v>
+      </c>
       <c r="K160" s="5">
         <v>7</v>
       </c>
@@ -68675,7 +68999,9 @@
       <c r="I161" s="5">
         <v>0</v>
       </c>
-      <c r="J161" s="5"/>
+      <c r="J161" s="5">
+        <v>81</v>
+      </c>
       <c r="K161" s="5">
         <v>8</v>
       </c>
@@ -68706,7 +69032,9 @@
       <c r="I162" s="5">
         <v>0</v>
       </c>
-      <c r="J162" s="5"/>
+      <c r="J162" s="5">
+        <v>74</v>
+      </c>
       <c r="K162" s="5">
         <v>8</v>
       </c>
@@ -68739,7 +69067,9 @@
       <c r="I163" s="5">
         <v>17</v>
       </c>
-      <c r="J163" s="5"/>
+      <c r="J163" s="5">
+        <v>41</v>
+      </c>
       <c r="K163" s="5">
         <v>9</v>
       </c>
@@ -68770,7 +69100,9 @@
       <c r="I164" s="5">
         <v>0</v>
       </c>
-      <c r="J164" s="5"/>
+      <c r="J164" s="5">
+        <v>47</v>
+      </c>
       <c r="K164" s="5">
         <v>9</v>
       </c>
@@ -68801,7 +69133,9 @@
       <c r="I165" s="5">
         <v>0</v>
       </c>
-      <c r="J165" s="5"/>
+      <c r="J165" s="5">
+        <v>81</v>
+      </c>
       <c r="K165" s="5">
         <v>8</v>
       </c>
@@ -68832,7 +69166,9 @@
       <c r="I166" s="5">
         <v>0</v>
       </c>
-      <c r="J166" s="5"/>
+      <c r="J166" s="5">
+        <v>87</v>
+      </c>
       <c r="K166" s="5">
         <v>5</v>
       </c>
@@ -68863,7 +69199,9 @@
       <c r="I167" s="5">
         <v>0</v>
       </c>
-      <c r="J167" s="5"/>
+      <c r="J167" s="5">
+        <v>43</v>
+      </c>
       <c r="K167" s="5">
         <v>4</v>
       </c>
@@ -68894,7 +69232,9 @@
       <c r="I168" s="5">
         <v>0</v>
       </c>
-      <c r="J168" s="5"/>
+      <c r="J168" s="5">
+        <v>94</v>
+      </c>
       <c r="K168" s="5">
         <v>7</v>
       </c>
@@ -68925,7 +69265,9 @@
       <c r="I169" s="5">
         <v>0</v>
       </c>
-      <c r="J169" s="5"/>
+      <c r="J169" s="5">
+        <v>88</v>
+      </c>
       <c r="K169" s="5">
         <v>9</v>
       </c>
@@ -68956,7 +69298,9 @@
       <c r="I170" s="5">
         <v>0</v>
       </c>
-      <c r="J170" s="5"/>
+      <c r="J170" s="5">
+        <v>81</v>
+      </c>
       <c r="K170" s="5">
         <v>7</v>
       </c>
@@ -68987,7 +69331,9 @@
       <c r="I171" s="5">
         <v>0</v>
       </c>
-      <c r="J171" s="5"/>
+      <c r="J171" s="5">
+        <v>81</v>
+      </c>
       <c r="K171" s="5">
         <v>9</v>
       </c>
@@ -69020,7 +69366,9 @@
       <c r="I172" s="5">
         <v>16</v>
       </c>
-      <c r="J172" s="5"/>
+      <c r="J172" s="5">
+        <v>85</v>
+      </c>
       <c r="K172" s="5">
         <v>8</v>
       </c>
@@ -69051,7 +69399,9 @@
       <c r="I173" s="5">
         <v>0</v>
       </c>
-      <c r="J173" s="5"/>
+      <c r="J173" s="5">
+        <v>71</v>
+      </c>
       <c r="K173" s="5">
         <v>7</v>
       </c>
@@ -69084,7 +69434,9 @@
       <c r="I174" s="5">
         <v>27</v>
       </c>
-      <c r="J174" s="5"/>
+      <c r="J174" s="5">
+        <v>67</v>
+      </c>
       <c r="K174" s="5">
         <v>9</v>
       </c>
@@ -69115,7 +69467,9 @@
       <c r="I175" s="5">
         <v>0</v>
       </c>
-      <c r="J175" s="5"/>
+      <c r="J175" s="5">
+        <v>81</v>
+      </c>
       <c r="K175" s="5">
         <v>9</v>
       </c>
@@ -69148,7 +69502,9 @@
       <c r="I176" s="5">
         <v>24</v>
       </c>
-      <c r="J176" s="5"/>
+      <c r="J176" s="5">
+        <v>72</v>
+      </c>
       <c r="K176" s="5">
         <v>6</v>
       </c>
@@ -69179,7 +69535,9 @@
       <c r="I177" s="5">
         <v>0</v>
       </c>
-      <c r="J177" s="5"/>
+      <c r="J177" s="5">
+        <v>60</v>
+      </c>
       <c r="K177" s="5">
         <v>9</v>
       </c>
@@ -69212,7 +69570,9 @@
       <c r="I178" s="5">
         <v>17</v>
       </c>
-      <c r="J178" s="5"/>
+      <c r="J178" s="5">
+        <v>85</v>
+      </c>
       <c r="K178" s="5">
         <v>0</v>
       </c>
@@ -69243,7 +69603,9 @@
       <c r="I179" s="5">
         <v>0</v>
       </c>
-      <c r="J179" s="5"/>
+      <c r="J179" s="5">
+        <v>94</v>
+      </c>
       <c r="K179" s="5">
         <v>7</v>
       </c>
@@ -69274,7 +69636,9 @@
       <c r="I180" s="5">
         <v>0</v>
       </c>
-      <c r="J180" s="5"/>
+      <c r="J180" s="5">
+        <v>81</v>
+      </c>
       <c r="K180" s="5">
         <v>4</v>
       </c>
@@ -69307,7 +69671,9 @@
       <c r="I181" s="5">
         <v>17</v>
       </c>
-      <c r="J181" s="5"/>
+      <c r="J181" s="5">
+        <v>83</v>
+      </c>
       <c r="K181" s="5">
         <v>0</v>
       </c>
@@ -69338,7 +69704,9 @@
       <c r="I182" s="5">
         <v>0</v>
       </c>
-      <c r="J182" s="5"/>
+      <c r="J182" s="5">
+        <v>51</v>
+      </c>
       <c r="K182" s="5">
         <v>4</v>
       </c>
@@ -69371,7 +69739,9 @@
       <c r="I183" s="5">
         <v>20</v>
       </c>
-      <c r="J183" s="5"/>
+      <c r="J183" s="5">
+        <v>88</v>
+      </c>
       <c r="K183" s="5">
         <v>3</v>
       </c>
@@ -69402,7 +69772,9 @@
       <c r="I184" s="5">
         <v>0</v>
       </c>
-      <c r="J184" s="5"/>
+      <c r="J184" s="5">
+        <v>108</v>
+      </c>
       <c r="K184" s="5">
         <v>9</v>
       </c>
@@ -69433,7 +69805,9 @@
       <c r="I185" s="5">
         <v>0</v>
       </c>
-      <c r="J185" s="5"/>
+      <c r="J185" s="5">
+        <v>48</v>
+      </c>
       <c r="K185" s="5">
         <v>4</v>
       </c>
@@ -69464,7 +69838,9 @@
       <c r="I186" s="5">
         <v>0</v>
       </c>
-      <c r="J186" s="5"/>
+      <c r="J186" s="5">
+        <v>64</v>
+      </c>
       <c r="K186" s="5">
         <v>7</v>
       </c>
@@ -69497,7 +69873,9 @@
       <c r="I187" s="5">
         <v>20</v>
       </c>
-      <c r="J187" s="5"/>
+      <c r="J187" s="5">
+        <v>88</v>
+      </c>
       <c r="K187" s="5">
         <v>3</v>
       </c>
@@ -69530,7 +69908,9 @@
       <c r="I188" s="5">
         <v>23</v>
       </c>
-      <c r="J188" s="5"/>
+      <c r="J188" s="5">
+        <v>85</v>
+      </c>
       <c r="K188" s="5">
         <v>2</v>
       </c>
@@ -69563,7 +69943,9 @@
       <c r="I189" s="5">
         <v>24</v>
       </c>
-      <c r="J189" s="5"/>
+      <c r="J189" s="5">
+        <v>58</v>
+      </c>
       <c r="K189" s="5">
         <v>4</v>
       </c>
@@ -69596,7 +69978,9 @@
       <c r="I190" s="5">
         <v>20</v>
       </c>
-      <c r="J190" s="5"/>
+      <c r="J190" s="5">
+        <v>88</v>
+      </c>
       <c r="K190" s="5">
         <v>3</v>
       </c>
@@ -69627,7 +70011,9 @@
       <c r="I191" s="5">
         <v>0</v>
       </c>
-      <c r="J191" s="5"/>
+      <c r="J191" s="5">
+        <v>35</v>
+      </c>
       <c r="K191" s="5">
         <v>9</v>
       </c>
@@ -69658,7 +70044,9 @@
       <c r="I192" s="5">
         <v>0</v>
       </c>
-      <c r="J192" s="5"/>
+      <c r="J192" s="5">
+        <v>99</v>
+      </c>
       <c r="K192" s="5">
         <v>4</v>
       </c>
@@ -69689,7 +70077,9 @@
       <c r="I193" s="5">
         <v>0</v>
       </c>
-      <c r="J193" s="5"/>
+      <c r="J193" s="5">
+        <v>79</v>
+      </c>
       <c r="K193" s="5">
         <v>8</v>
       </c>
@@ -69722,7 +70112,9 @@
       <c r="I194" s="5">
         <v>23</v>
       </c>
-      <c r="J194" s="5"/>
+      <c r="J194" s="5">
+        <v>85</v>
+      </c>
       <c r="K194" s="5">
         <v>2</v>
       </c>
@@ -69755,7 +70147,9 @@
       <c r="I195" s="5">
         <v>17</v>
       </c>
-      <c r="J195" s="5"/>
+      <c r="J195" s="5">
+        <v>48</v>
+      </c>
       <c r="K195" s="5">
         <v>9</v>
       </c>
@@ -69786,7 +70180,9 @@
       <c r="I196" s="5">
         <v>0</v>
       </c>
-      <c r="J196" s="5"/>
+      <c r="J196" s="5">
+        <v>104</v>
+      </c>
       <c r="K196" s="5">
         <v>7</v>
       </c>
@@ -69817,7 +70213,9 @@
       <c r="I197" s="5">
         <v>0</v>
       </c>
-      <c r="J197" s="5"/>
+      <c r="J197" s="5">
+        <v>47</v>
+      </c>
       <c r="K197" s="5">
         <v>7</v>
       </c>
@@ -69848,7 +70246,9 @@
       <c r="I198" s="5">
         <v>0</v>
       </c>
-      <c r="J198" s="5"/>
+      <c r="J198" s="5">
+        <v>69</v>
+      </c>
       <c r="K198" s="5">
         <v>7</v>
       </c>
@@ -69879,7 +70279,9 @@
       <c r="I199" s="5">
         <v>0</v>
       </c>
-      <c r="J199" s="5"/>
+      <c r="J199" s="5">
+        <v>84</v>
+      </c>
       <c r="K199" s="5">
         <v>0</v>
       </c>
@@ -69910,7 +70312,9 @@
       <c r="I200" s="5">
         <v>0</v>
       </c>
-      <c r="J200" s="5"/>
+      <c r="J200" s="5">
+        <v>81</v>
+      </c>
       <c r="K200" s="5">
         <v>9</v>
       </c>
@@ -69941,7 +70345,9 @@
       <c r="I201" s="5">
         <v>0</v>
       </c>
-      <c r="J201" s="5"/>
+      <c r="J201" s="5">
+        <v>88</v>
+      </c>
       <c r="K201" s="5">
         <v>0</v>
       </c>
@@ -69974,7 +70380,9 @@
       <c r="I202" s="5">
         <v>28</v>
       </c>
-      <c r="J202" s="5"/>
+      <c r="J202" s="5">
+        <v>94</v>
+      </c>
       <c r="K202" s="5">
         <v>8</v>
       </c>
@@ -70005,7 +70413,9 @@
       <c r="I203" s="5">
         <v>0</v>
       </c>
-      <c r="J203" s="5"/>
+      <c r="J203" s="5">
+        <v>96</v>
+      </c>
       <c r="K203" s="5">
         <v>9</v>
       </c>
@@ -70036,7 +70446,9 @@
       <c r="I204" s="5">
         <v>0</v>
       </c>
-      <c r="J204" s="5"/>
+      <c r="J204" s="5">
+        <v>88</v>
+      </c>
       <c r="K204" s="5">
         <v>9</v>
       </c>
@@ -70067,7 +70479,9 @@
       <c r="I205" s="5">
         <v>0</v>
       </c>
-      <c r="J205" s="5"/>
+      <c r="J205" s="5">
+        <v>57</v>
+      </c>
       <c r="K205" s="5">
         <v>7</v>
       </c>
@@ -70100,7 +70514,9 @@
       <c r="I206" s="5">
         <v>23</v>
       </c>
-      <c r="J206" s="5"/>
+      <c r="J206" s="5">
+        <v>85</v>
+      </c>
       <c r="K206" s="5">
         <v>2</v>
       </c>
@@ -70131,7 +70547,9 @@
       <c r="I207" s="5">
         <v>0</v>
       </c>
-      <c r="J207" s="5"/>
+      <c r="J207" s="5">
+        <v>81</v>
+      </c>
       <c r="K207" s="5">
         <v>8</v>
       </c>
@@ -70162,7 +70580,9 @@
       <c r="I208" s="5">
         <v>0</v>
       </c>
-      <c r="J208" s="5"/>
+      <c r="J208" s="5">
+        <v>52</v>
+      </c>
       <c r="K208" s="5">
         <v>9</v>
       </c>
@@ -70193,7 +70613,9 @@
       <c r="I209" s="5">
         <v>0</v>
       </c>
-      <c r="J209" s="5"/>
+      <c r="J209" s="5">
+        <v>102</v>
+      </c>
       <c r="K209" s="5">
         <v>9</v>
       </c>
@@ -70226,7 +70648,9 @@
       <c r="I210" s="5">
         <v>28</v>
       </c>
-      <c r="J210" s="5"/>
+      <c r="J210" s="5">
+        <v>81</v>
+      </c>
       <c r="K210" s="5">
         <v>8</v>
       </c>
@@ -70259,7 +70683,9 @@
       <c r="I211" s="5">
         <v>28</v>
       </c>
-      <c r="J211" s="5"/>
+      <c r="J211" s="5">
+        <v>81</v>
+      </c>
       <c r="K211" s="5">
         <v>9</v>
       </c>
@@ -70290,7 +70716,9 @@
       <c r="I212" s="5">
         <v>0</v>
       </c>
-      <c r="J212" s="5"/>
+      <c r="J212" s="5">
+        <v>81</v>
+      </c>
       <c r="K212" s="5">
         <v>0</v>
       </c>
@@ -70323,7 +70751,9 @@
       <c r="I213" s="5">
         <v>19</v>
       </c>
-      <c r="J213" s="5"/>
+      <c r="J213" s="5">
+        <v>87</v>
+      </c>
       <c r="K213" s="5">
         <v>6</v>
       </c>
@@ -70356,7 +70786,9 @@
       <c r="I214" s="5">
         <v>17</v>
       </c>
-      <c r="J214" s="5"/>
+      <c r="J214" s="5">
+        <v>112</v>
+      </c>
       <c r="K214" s="5">
         <v>0</v>
       </c>
@@ -70389,7 +70821,9 @@
       <c r="I215" s="5">
         <v>17</v>
       </c>
-      <c r="J215" s="5"/>
+      <c r="J215" s="5">
+        <v>48</v>
+      </c>
       <c r="K215" s="5">
         <v>0</v>
       </c>
@@ -70420,7 +70854,9 @@
       <c r="I216" s="5">
         <v>0</v>
       </c>
-      <c r="J216" s="5"/>
+      <c r="J216" s="5">
+        <v>97</v>
+      </c>
       <c r="K216" s="5">
         <v>7</v>
       </c>
@@ -70451,7 +70887,9 @@
       <c r="I217" s="5">
         <v>0</v>
       </c>
-      <c r="J217" s="5"/>
+      <c r="J217" s="5">
+        <v>45</v>
+      </c>
       <c r="K217" s="5">
         <v>8</v>
       </c>
@@ -70482,7 +70920,9 @@
       <c r="I218" s="5">
         <v>0</v>
       </c>
-      <c r="J218" s="5"/>
+      <c r="J218" s="5">
+        <v>75</v>
+      </c>
       <c r="K218" s="5">
         <v>8</v>
       </c>
@@ -70513,7 +70953,9 @@
       <c r="I219" s="5">
         <v>0</v>
       </c>
-      <c r="J219" s="5"/>
+      <c r="J219" s="5">
+        <v>72</v>
+      </c>
       <c r="K219" s="5">
         <v>8</v>
       </c>
@@ -70544,7 +70986,9 @@
       <c r="I220" s="5">
         <v>0</v>
       </c>
-      <c r="J220" s="5"/>
+      <c r="J220" s="5">
+        <v>81</v>
+      </c>
       <c r="K220" s="5">
         <v>8</v>
       </c>
@@ -70575,7 +71019,9 @@
       <c r="I221" s="5">
         <v>0</v>
       </c>
-      <c r="J221" s="5"/>
+      <c r="J221" s="5">
+        <v>91</v>
+      </c>
       <c r="K221" s="5">
         <v>8</v>
       </c>
@@ -70606,7 +71052,9 @@
       <c r="I222" s="5">
         <v>0</v>
       </c>
-      <c r="J222" s="5"/>
+      <c r="J222" s="5">
+        <v>48</v>
+      </c>
       <c r="K222" s="5">
         <v>7</v>
       </c>
@@ -70637,7 +71085,9 @@
       <c r="I223" s="5">
         <v>0</v>
       </c>
-      <c r="J223" s="5"/>
+      <c r="J223" s="5">
+        <v>81</v>
+      </c>
       <c r="K223" s="5">
         <v>8</v>
       </c>
@@ -70668,7 +71118,9 @@
       <c r="I224" s="5">
         <v>0</v>
       </c>
-      <c r="J224" s="5"/>
+      <c r="J224" s="5">
+        <v>76</v>
+      </c>
       <c r="K224" s="5">
         <v>8</v>
       </c>
@@ -70699,7 +71151,9 @@
       <c r="I225" s="5">
         <v>0</v>
       </c>
-      <c r="J225" s="5"/>
+      <c r="J225" s="5">
+        <v>78</v>
+      </c>
       <c r="K225" s="5">
         <v>9</v>
       </c>
@@ -70730,7 +71184,9 @@
       <c r="I226" s="5">
         <v>0</v>
       </c>
-      <c r="J226" s="5"/>
+      <c r="J226" s="5">
+        <v>33</v>
+      </c>
       <c r="K226" s="5">
         <v>8</v>
       </c>
@@ -70763,7 +71219,9 @@
       <c r="I227" s="5">
         <v>16</v>
       </c>
-      <c r="J227" s="5"/>
+      <c r="J227" s="5">
+        <v>85</v>
+      </c>
       <c r="K227" s="5">
         <v>8</v>
       </c>
@@ -70794,7 +71252,9 @@
       <c r="I228" s="5">
         <v>0</v>
       </c>
-      <c r="J228" s="5"/>
+      <c r="J228" s="5">
+        <v>52</v>
+      </c>
       <c r="K228" s="5">
         <v>9</v>
       </c>
@@ -70827,7 +71287,9 @@
       <c r="I229" s="5">
         <v>23</v>
       </c>
-      <c r="J229" s="5"/>
+      <c r="J229" s="5">
+        <v>52</v>
+      </c>
       <c r="K229" s="5">
         <v>1</v>
       </c>
@@ -70860,7 +71322,9 @@
       <c r="I230" s="5">
         <v>16</v>
       </c>
-      <c r="J230" s="5"/>
+      <c r="J230" s="5">
+        <v>85</v>
+      </c>
       <c r="K230" s="5">
         <v>8</v>
       </c>
@@ -70893,7 +71357,9 @@
       <c r="I231" s="5">
         <v>16</v>
       </c>
-      <c r="J231" s="5"/>
+      <c r="J231" s="5">
+        <v>72</v>
+      </c>
       <c r="K231" s="5">
         <v>8</v>
       </c>
@@ -70924,7 +71390,9 @@
       <c r="I232" s="5">
         <v>0</v>
       </c>
-      <c r="J232" s="5"/>
+      <c r="J232" s="5">
+        <v>96</v>
+      </c>
       <c r="K232" s="5">
         <v>9</v>
       </c>
@@ -70955,7 +71423,9 @@
       <c r="I233" s="5">
         <v>0</v>
       </c>
-      <c r="J233" s="5"/>
+      <c r="J233" s="5">
+        <v>82</v>
+      </c>
       <c r="K233" s="5">
         <v>7</v>
       </c>
@@ -70988,7 +71458,9 @@
       <c r="I234" s="5">
         <v>16</v>
       </c>
-      <c r="J234" s="5"/>
+      <c r="J234" s="5">
+        <v>85</v>
+      </c>
       <c r="K234" s="5">
         <v>8</v>
       </c>
@@ -71019,7 +71491,9 @@
       <c r="I235" s="5">
         <v>0</v>
       </c>
-      <c r="J235" s="5"/>
+      <c r="J235" s="5">
+        <v>61</v>
+      </c>
       <c r="K235" s="5">
         <v>8</v>
       </c>
@@ -71050,7 +71524,9 @@
       <c r="I236" s="5">
         <v>0</v>
       </c>
-      <c r="J236" s="5"/>
+      <c r="J236" s="5">
+        <v>81</v>
+      </c>
       <c r="K236" s="5">
         <v>8</v>
       </c>
@@ -71083,7 +71559,9 @@
       <c r="I237" s="5">
         <v>28</v>
       </c>
-      <c r="J237" s="5"/>
+      <c r="J237" s="5">
+        <v>38</v>
+      </c>
       <c r="K237" s="5">
         <v>8</v>
       </c>
@@ -71116,7 +71594,9 @@
       <c r="I238" s="5">
         <v>17</v>
       </c>
-      <c r="J238" s="5"/>
+      <c r="J238" s="5">
+        <v>85</v>
+      </c>
       <c r="K238" s="5">
         <v>3</v>
       </c>
@@ -71149,7 +71629,9 @@
       <c r="I239" s="5">
         <v>16</v>
       </c>
-      <c r="J239" s="5"/>
+      <c r="J239" s="5">
+        <v>85</v>
+      </c>
       <c r="K239" s="5">
         <v>8</v>
       </c>
@@ -71182,7 +71664,9 @@
       <c r="I240" s="5">
         <v>23</v>
       </c>
-      <c r="J240" s="5"/>
+      <c r="J240" s="5">
+        <v>52</v>
+      </c>
       <c r="K240" s="5">
         <v>1</v>
       </c>
@@ -71213,7 +71697,9 @@
       <c r="I241" s="5">
         <v>0</v>
       </c>
-      <c r="J241" s="5"/>
+      <c r="J241" s="5">
+        <v>81</v>
+      </c>
       <c r="K241" s="5">
         <v>8</v>
       </c>
@@ -71244,7 +71730,9 @@
       <c r="I242" s="5">
         <v>0</v>
       </c>
-      <c r="J242" s="5"/>
+      <c r="J242" s="5">
+        <v>81</v>
+      </c>
       <c r="K242" s="5">
         <v>8</v>
       </c>
@@ -71275,7 +71763,9 @@
       <c r="I243" s="5">
         <v>0</v>
       </c>
-      <c r="J243" s="5"/>
+      <c r="J243" s="5">
+        <v>59</v>
+      </c>
       <c r="K243" s="5">
         <v>5</v>
       </c>
@@ -71306,7 +71796,9 @@
       <c r="I244" s="5">
         <v>0</v>
       </c>
-      <c r="J244" s="5"/>
+      <c r="J244" s="5">
+        <v>78</v>
+      </c>
       <c r="K244" s="5">
         <v>6</v>
       </c>
@@ -71339,7 +71831,9 @@
       <c r="I245" s="5">
         <v>16</v>
       </c>
-      <c r="J245" s="5"/>
+      <c r="J245" s="5">
+        <v>85</v>
+      </c>
       <c r="K245" s="5">
         <v>8</v>
       </c>
@@ -71370,7 +71864,9 @@
       <c r="I246" s="5">
         <v>0</v>
       </c>
-      <c r="J246" s="5"/>
+      <c r="J246" s="5">
+        <v>78</v>
+      </c>
       <c r="K246" s="5">
         <v>6</v>
       </c>
@@ -71401,7 +71897,9 @@
       <c r="I247" s="5">
         <v>0</v>
       </c>
-      <c r="J247" s="5"/>
+      <c r="J247" s="5">
+        <v>81</v>
+      </c>
       <c r="K247" s="5">
         <v>8</v>
       </c>
@@ -71432,7 +71930,9 @@
       <c r="I248" s="5">
         <v>0</v>
       </c>
-      <c r="J248" s="5"/>
+      <c r="J248" s="5">
+        <v>81</v>
+      </c>
       <c r="K248" s="5">
         <v>8</v>
       </c>
@@ -71465,7 +71965,9 @@
       <c r="I249" s="5">
         <v>17</v>
       </c>
-      <c r="J249" s="5"/>
+      <c r="J249" s="5">
+        <v>85</v>
+      </c>
       <c r="K249" s="5">
         <v>3</v>
       </c>
@@ -71496,7 +71998,9 @@
       <c r="I250" s="5">
         <v>0</v>
       </c>
-      <c r="J250" s="5"/>
+      <c r="J250" s="5">
+        <v>81</v>
+      </c>
       <c r="K250" s="5">
         <v>8</v>
       </c>
@@ -71527,7 +72031,9 @@
       <c r="I251" s="5">
         <v>0</v>
       </c>
-      <c r="J251" s="5"/>
+      <c r="J251" s="5">
+        <v>46</v>
+      </c>
       <c r="K251" s="5">
         <v>7</v>
       </c>
@@ -71558,7 +72064,9 @@
       <c r="I252" s="5">
         <v>0</v>
       </c>
-      <c r="J252" s="5"/>
+      <c r="J252" s="5">
+        <v>81</v>
+      </c>
       <c r="K252" s="5">
         <v>8</v>
       </c>
@@ -71591,7 +72099,9 @@
       <c r="I253" s="5">
         <v>16</v>
       </c>
-      <c r="J253" s="5"/>
+      <c r="J253" s="5">
+        <v>85</v>
+      </c>
       <c r="K253" s="5">
         <v>8</v>
       </c>
@@ -71622,7 +72132,9 @@
       <c r="I254" s="5">
         <v>0</v>
       </c>
-      <c r="J254" s="5"/>
+      <c r="J254" s="5">
+        <v>81</v>
+      </c>
       <c r="K254" s="5">
         <v>8</v>
       </c>
@@ -71655,7 +72167,9 @@
       <c r="I255" s="11">
         <v>21</v>
       </c>
-      <c r="J255" s="5"/>
+      <c r="J255" s="5">
+        <v>94</v>
+      </c>
       <c r="K255" s="11">
         <v>4</v>
       </c>
@@ -71688,7 +72202,9 @@
       <c r="I256" s="5">
         <v>28</v>
       </c>
-      <c r="J256" s="5"/>
+      <c r="J256" s="5">
+        <v>81</v>
+      </c>
       <c r="K256" s="5">
         <v>8</v>
       </c>
@@ -71719,7 +72235,9 @@
       <c r="I257" s="5">
         <v>0</v>
       </c>
-      <c r="J257" s="5"/>
+      <c r="J257" s="5">
+        <v>81</v>
+      </c>
       <c r="K257" s="5">
         <v>8</v>
       </c>
@@ -71750,7 +72268,9 @@
       <c r="I258" s="5">
         <v>0</v>
       </c>
-      <c r="J258" s="5"/>
+      <c r="J258" s="5">
+        <v>52</v>
+      </c>
       <c r="K258" s="5">
         <v>7</v>
       </c>
@@ -71781,7 +72301,9 @@
       <c r="I259" s="5">
         <v>0</v>
       </c>
-      <c r="J259" s="5"/>
+      <c r="J259" s="5">
+        <v>81</v>
+      </c>
       <c r="K259" s="5">
         <v>8</v>
       </c>
@@ -71814,7 +72336,9 @@
       <c r="I260" s="5">
         <v>16</v>
       </c>
-      <c r="J260" s="5"/>
+      <c r="J260" s="5">
+        <v>88</v>
+      </c>
       <c r="K260" s="5">
         <v>7</v>
       </c>
@@ -71847,7 +72371,9 @@
       <c r="I261" s="5">
         <v>27</v>
       </c>
-      <c r="J261" s="5"/>
+      <c r="J261" s="5">
+        <v>99</v>
+      </c>
       <c r="K261" s="5">
         <v>4</v>
       </c>
@@ -71880,7 +72406,9 @@
       <c r="I262" s="5">
         <v>23</v>
       </c>
-      <c r="J262" s="5"/>
+      <c r="J262" s="5">
+        <v>94</v>
+      </c>
       <c r="K262" s="5">
         <v>2</v>
       </c>
@@ -71913,7 +72441,9 @@
       <c r="I263" s="5">
         <v>16</v>
       </c>
-      <c r="J263" s="5"/>
+      <c r="J263" s="5">
+        <v>88</v>
+      </c>
       <c r="K263" s="5">
         <v>2</v>
       </c>
@@ -71946,7 +72476,9 @@
       <c r="I264" s="5">
         <v>17</v>
       </c>
-      <c r="J264" s="5"/>
+      <c r="J264" s="5">
+        <v>85</v>
+      </c>
       <c r="K264" s="5">
         <v>3</v>
       </c>
@@ -71979,7 +72511,9 @@
       <c r="I265" s="5">
         <v>28</v>
       </c>
-      <c r="J265" s="5"/>
+      <c r="J265" s="5">
+        <v>110</v>
+      </c>
       <c r="K265" s="5">
         <v>1</v>
       </c>
@@ -72010,7 +72544,9 @@
       <c r="I266" s="5">
         <v>0</v>
       </c>
-      <c r="J266" s="5"/>
+      <c r="J266" s="5">
+        <v>69</v>
+      </c>
       <c r="K266" s="5">
         <v>7</v>
       </c>
@@ -72043,7 +72579,9 @@
       <c r="I267" s="5">
         <v>24</v>
       </c>
-      <c r="J267" s="5"/>
+      <c r="J267" s="5">
+        <v>41</v>
+      </c>
       <c r="K267" s="5">
         <v>6</v>
       </c>
@@ -72076,7 +72614,9 @@
       <c r="I268" s="5">
         <v>21</v>
       </c>
-      <c r="J268" s="5"/>
+      <c r="J268" s="5">
+        <v>107</v>
+      </c>
       <c r="K268" s="5">
         <v>1</v>
       </c>
@@ -72109,7 +72649,9 @@
       <c r="I269" s="5">
         <v>28</v>
       </c>
-      <c r="J269" s="5"/>
+      <c r="J269" s="5">
+        <v>97</v>
+      </c>
       <c r="K269" s="5">
         <v>2</v>
       </c>
@@ -72142,7 +72684,9 @@
       <c r="I270" s="5">
         <v>23</v>
       </c>
-      <c r="J270" s="5"/>
+      <c r="J270" s="5">
+        <v>72</v>
+      </c>
       <c r="K270" s="5">
         <v>9</v>
       </c>
@@ -72173,7 +72717,9 @@
       <c r="I271" s="5">
         <v>0</v>
       </c>
-      <c r="J271" s="5"/>
+      <c r="J271" s="5">
+        <v>41</v>
+      </c>
       <c r="K271" s="5">
         <v>7</v>
       </c>
@@ -72204,7 +72750,9 @@
       <c r="I272" s="5">
         <v>0</v>
       </c>
-      <c r="J272" s="5"/>
+      <c r="J272" s="5">
+        <v>81</v>
+      </c>
       <c r="K272" s="5">
         <v>8</v>
       </c>
@@ -72237,7 +72785,9 @@
       <c r="I273" s="5">
         <v>28</v>
       </c>
-      <c r="J273" s="5"/>
+      <c r="J273" s="5">
+        <v>105</v>
+      </c>
       <c r="K273" s="5">
         <v>3</v>
       </c>
@@ -72270,7 +72820,9 @@
       <c r="I274" s="5">
         <v>17</v>
       </c>
-      <c r="J274" s="5"/>
+      <c r="J274" s="5">
+        <v>48</v>
+      </c>
       <c r="K274" s="5">
         <v>7</v>
       </c>
@@ -72301,7 +72853,9 @@
       <c r="I275" s="5">
         <v>0</v>
       </c>
-      <c r="J275" s="5"/>
+      <c r="J275" s="5">
+        <v>47</v>
+      </c>
       <c r="K275" s="5">
         <v>7</v>
       </c>
@@ -72332,7 +72886,9 @@
       <c r="I276" s="5">
         <v>0</v>
       </c>
-      <c r="J276" s="5"/>
+      <c r="J276" s="5">
+        <v>72</v>
+      </c>
       <c r="K276" s="5">
         <v>7</v>
       </c>
@@ -72363,7 +72919,9 @@
       <c r="I277" s="5">
         <v>0</v>
       </c>
-      <c r="J277" s="5"/>
+      <c r="J277" s="5">
+        <v>81</v>
+      </c>
       <c r="K277" s="5">
         <v>8</v>
       </c>
@@ -72394,7 +72952,9 @@
       <c r="I278" s="5">
         <v>0</v>
       </c>
-      <c r="J278" s="5"/>
+      <c r="J278" s="5">
+        <v>88</v>
+      </c>
       <c r="K278" s="5">
         <v>7</v>
       </c>
@@ -72425,7 +72985,9 @@
       <c r="I279" s="5">
         <v>0</v>
       </c>
-      <c r="J279" s="5"/>
+      <c r="J279" s="5">
+        <v>98</v>
+      </c>
       <c r="K279" s="5">
         <v>7</v>
       </c>
@@ -72458,7 +73020,9 @@
       <c r="I280" s="5">
         <v>21</v>
       </c>
-      <c r="J280" s="5"/>
+      <c r="J280" s="5">
+        <v>81</v>
+      </c>
       <c r="K280" s="5">
         <v>3</v>
       </c>
@@ -72489,7 +73053,9 @@
       <c r="I281" s="5">
         <v>0</v>
       </c>
-      <c r="J281" s="5"/>
+      <c r="J281" s="5">
+        <v>49</v>
+      </c>
       <c r="K281" s="5">
         <v>4</v>
       </c>
@@ -72520,7 +73086,9 @@
       <c r="I282" s="5">
         <v>0</v>
       </c>
-      <c r="J282" s="5"/>
+      <c r="J282" s="5">
+        <v>81</v>
+      </c>
       <c r="K282" s="5">
         <v>8</v>
       </c>
@@ -72551,7 +73119,9 @@
       <c r="I283" s="5">
         <v>0</v>
       </c>
-      <c r="J283" s="5"/>
+      <c r="J283" s="5">
+        <v>81</v>
+      </c>
       <c r="K283" s="5">
         <v>8</v>
       </c>
@@ -72582,7 +73152,9 @@
       <c r="I284" s="5">
         <v>0</v>
       </c>
-      <c r="J284" s="5"/>
+      <c r="J284" s="5">
+        <v>81</v>
+      </c>
       <c r="K284" s="5">
         <v>8</v>
       </c>
@@ -72615,7 +73187,9 @@
       <c r="I285" s="5">
         <v>23</v>
       </c>
-      <c r="J285" s="5"/>
+      <c r="J285" s="5">
+        <v>81</v>
+      </c>
       <c r="K285" s="5">
         <v>3</v>
       </c>
@@ -72648,7 +73222,9 @@
       <c r="I286" s="5">
         <v>17</v>
       </c>
-      <c r="J286" s="5"/>
+      <c r="J286" s="5">
+        <v>87</v>
+      </c>
       <c r="K286" s="5">
         <v>1</v>
       </c>
@@ -72679,7 +73255,9 @@
       <c r="I287" s="5">
         <v>0</v>
       </c>
-      <c r="J287" s="5"/>
+      <c r="J287" s="5">
+        <v>74</v>
+      </c>
       <c r="K287" s="5">
         <v>7</v>
       </c>
@@ -72710,7 +73288,9 @@
       <c r="I288" s="5">
         <v>0</v>
       </c>
-      <c r="J288" s="5"/>
+      <c r="J288" s="5">
+        <v>81</v>
+      </c>
       <c r="K288" s="5">
         <v>8</v>
       </c>
@@ -72743,7 +73323,9 @@
       <c r="I289" s="5">
         <v>17</v>
       </c>
-      <c r="J289" s="5"/>
+      <c r="J289" s="5">
+        <v>43</v>
+      </c>
       <c r="K289" s="5">
         <v>3</v>
       </c>
@@ -72774,7 +73356,9 @@
       <c r="I290" s="5">
         <v>0</v>
       </c>
-      <c r="J290" s="5"/>
+      <c r="J290" s="5">
+        <v>81</v>
+      </c>
       <c r="K290" s="5">
         <v>8</v>
       </c>
@@ -72805,7 +73389,9 @@
       <c r="I291" s="5">
         <v>0</v>
       </c>
-      <c r="J291" s="5"/>
+      <c r="J291" s="5">
+        <v>74</v>
+      </c>
       <c r="K291" s="5">
         <v>7</v>
       </c>
@@ -72836,7 +73422,9 @@
       <c r="I292" s="5">
         <v>0</v>
       </c>
-      <c r="J292" s="5"/>
+      <c r="J292" s="5">
+        <v>105</v>
+      </c>
       <c r="K292" s="5">
         <v>8</v>
       </c>
@@ -72869,7 +73457,9 @@
       <c r="I293" s="5">
         <v>18</v>
       </c>
-      <c r="J293" s="5"/>
+      <c r="J293" s="5">
+        <v>94</v>
+      </c>
       <c r="K293" s="5">
         <v>4</v>
       </c>
@@ -72902,7 +73492,9 @@
       <c r="I294" s="5">
         <v>16</v>
       </c>
-      <c r="J294" s="5"/>
+      <c r="J294" s="5">
+        <v>85</v>
+      </c>
       <c r="K294" s="5">
         <v>8</v>
       </c>
@@ -72935,7 +73527,9 @@
       <c r="I295" s="5">
         <v>23</v>
       </c>
-      <c r="J295" s="5"/>
+      <c r="J295" s="5">
+        <v>87</v>
+      </c>
       <c r="K295" s="5">
         <v>1</v>
       </c>
@@ -72966,7 +73560,9 @@
       <c r="I296" s="5">
         <v>0</v>
       </c>
-      <c r="J296" s="5"/>
+      <c r="J296" s="5">
+        <v>95</v>
+      </c>
       <c r="K296" s="5">
         <v>8</v>
       </c>
@@ -72999,7 +73595,9 @@
       <c r="I297" s="5">
         <v>23</v>
       </c>
-      <c r="J297" s="5"/>
+      <c r="J297" s="5">
+        <v>87</v>
+      </c>
       <c r="K297" s="5">
         <v>1</v>
       </c>
@@ -73030,7 +73628,9 @@
       <c r="I298" s="5">
         <v>0</v>
       </c>
-      <c r="J298" s="5"/>
+      <c r="J298" s="5">
+        <v>87</v>
+      </c>
       <c r="K298" s="5">
         <v>4</v>
       </c>
@@ -73061,7 +73661,9 @@
       <c r="I299" s="5">
         <v>0</v>
       </c>
-      <c r="J299" s="5"/>
+      <c r="J299" s="5">
+        <v>81</v>
+      </c>
       <c r="K299" s="5">
         <v>8</v>
       </c>
@@ -73092,7 +73694,9 @@
       <c r="I300" s="5">
         <v>0</v>
       </c>
-      <c r="J300" s="5"/>
+      <c r="J300" s="5">
+        <v>81</v>
+      </c>
       <c r="K300" s="5">
         <v>8</v>
       </c>
@@ -73123,7 +73727,9 @@
       <c r="I301" s="5">
         <v>0</v>
       </c>
-      <c r="J301" s="5"/>
+      <c r="J301" s="5">
+        <v>48</v>
+      </c>
       <c r="K301" s="5">
         <v>6</v>
       </c>
@@ -73154,7 +73760,9 @@
       <c r="I302" s="5">
         <v>0</v>
       </c>
-      <c r="J302" s="5"/>
+      <c r="J302" s="5">
+        <v>81</v>
+      </c>
       <c r="K302" s="5">
         <v>9</v>
       </c>
@@ -73187,7 +73795,9 @@
       <c r="I303" s="5">
         <v>28</v>
       </c>
-      <c r="J303" s="5"/>
+      <c r="J303" s="5">
+        <v>60</v>
+      </c>
       <c r="K303" s="5">
         <v>2</v>
       </c>
@@ -73220,12 +73830,14 @@
       <c r="I304" s="5">
         <v>22</v>
       </c>
-      <c r="J304" s="5"/>
+      <c r="J304" s="5">
+        <v>47</v>
+      </c>
       <c r="K304" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:13">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -73251,12 +73863,14 @@
       <c r="I305" s="5">
         <v>0</v>
       </c>
-      <c r="J305" s="5"/>
+      <c r="J305" s="5">
+        <v>37</v>
+      </c>
       <c r="K305" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:13">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -73282,12 +73896,14 @@
       <c r="I306" s="5">
         <v>0</v>
       </c>
-      <c r="J306" s="5"/>
+      <c r="J306" s="5">
+        <v>74</v>
+      </c>
       <c r="K306" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:13">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -73313,12 +73929,14 @@
       <c r="I307" s="5">
         <v>0</v>
       </c>
-      <c r="J307" s="5"/>
+      <c r="J307" s="5">
+        <v>74</v>
+      </c>
       <c r="K307" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:13">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -73344,12 +73962,14 @@
       <c r="I308" s="5">
         <v>0</v>
       </c>
-      <c r="J308" s="5"/>
+      <c r="J308" s="5">
+        <v>81</v>
+      </c>
       <c r="K308" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:13">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -73377,12 +73997,14 @@
       <c r="I309" s="5">
         <v>21</v>
       </c>
-      <c r="J309" s="5"/>
+      <c r="J309" s="5">
+        <v>103</v>
+      </c>
       <c r="K309" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:13">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -73408,12 +74030,14 @@
       <c r="I310" s="5">
         <v>0</v>
       </c>
-      <c r="J310" s="5"/>
+      <c r="J310" s="5">
+        <v>74</v>
+      </c>
       <c r="K310" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:13">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -73439,12 +74063,20 @@
       <c r="I311" s="4">
         <v>0</v>
       </c>
-      <c r="J311" s="19"/>
+      <c r="J311" s="5">
+        <v>97</v>
+      </c>
       <c r="K311" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="312" spans="1:11">
+      <c r="L311">
+        <v>8</v>
+      </c>
+      <c r="M311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -73470,12 +74102,20 @@
       <c r="I312" s="4">
         <v>0</v>
       </c>
-      <c r="J312" s="19"/>
+      <c r="J312" s="5">
+        <v>75</v>
+      </c>
       <c r="K312" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="313" spans="1:11">
+      <c r="L312">
+        <v>7</v>
+      </c>
+      <c r="M312" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -73503,12 +74143,20 @@
       <c r="I313" s="4">
         <v>28</v>
       </c>
-      <c r="J313" s="4"/>
+      <c r="J313" s="4">
+        <v>30</v>
+      </c>
       <c r="K313" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:11">
+      <c r="L313">
+        <v>3</v>
+      </c>
+      <c r="M313" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -73534,12 +74182,20 @@
       <c r="I314" s="4">
         <v>0</v>
       </c>
-      <c r="J314" s="19"/>
+      <c r="J314" s="5">
+        <v>94</v>
+      </c>
       <c r="K314" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="315" spans="1:11">
+      <c r="L314">
+        <v>8</v>
+      </c>
+      <c r="M314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -73565,12 +74221,20 @@
       <c r="I315" s="4">
         <v>0</v>
       </c>
-      <c r="J315" s="4"/>
+      <c r="J315" s="4">
+        <v>89</v>
+      </c>
       <c r="K315" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="1:11">
+      <c r="L315">
+        <v>8</v>
+      </c>
+      <c r="M315" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" s="4">
         <v>315</v>
       </c>
@@ -73596,12 +74260,20 @@
       <c r="I316" s="4">
         <v>0</v>
       </c>
-      <c r="J316" s="19"/>
+      <c r="J316" s="5">
+        <v>81</v>
+      </c>
       <c r="K316" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
+      <c r="L316">
+        <v>8</v>
+      </c>
+      <c r="M316" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -73629,12 +74301,20 @@
       <c r="I317" s="4">
         <v>17</v>
       </c>
-      <c r="J317" s="19"/>
+      <c r="J317" s="5">
+        <v>48</v>
+      </c>
       <c r="K317" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="1:11">
+      <c r="L317">
+        <v>9</v>
+      </c>
+      <c r="M317" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -73660,12 +74340,20 @@
       <c r="I318" s="4">
         <v>0</v>
       </c>
-      <c r="J318" s="19"/>
+      <c r="J318" s="5">
+        <v>81</v>
+      </c>
       <c r="K318" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="1:11">
+      <c r="L318">
+        <v>8</v>
+      </c>
+      <c r="M318" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -73691,12 +74379,20 @@
       <c r="I319" s="4">
         <v>0</v>
       </c>
-      <c r="J319" s="19"/>
+      <c r="J319" s="5">
+        <v>81</v>
+      </c>
       <c r="K319" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="320" spans="1:11">
+      <c r="L319">
+        <v>8</v>
+      </c>
+      <c r="M319" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" s="4">
         <v>319</v>
       </c>
@@ -73722,12 +74418,20 @@
       <c r="I320" s="4">
         <v>0</v>
       </c>
-      <c r="J320" s="19"/>
+      <c r="J320" s="5">
+        <v>85</v>
+      </c>
       <c r="K320" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="L320">
+        <v>7</v>
+      </c>
+      <c r="M320" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -73753,12 +74457,20 @@
       <c r="I321" s="4">
         <v>0</v>
       </c>
-      <c r="J321" s="19"/>
+      <c r="J321" s="5">
+        <v>37</v>
+      </c>
       <c r="K321" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="L321">
+        <v>8</v>
+      </c>
+      <c r="M321" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" s="4">
         <v>321</v>
       </c>
@@ -73784,12 +74496,20 @@
       <c r="I322" s="4">
         <v>0</v>
       </c>
-      <c r="J322" s="19"/>
+      <c r="J322" s="5">
+        <v>85</v>
+      </c>
       <c r="K322" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="L322">
+        <v>7</v>
+      </c>
+      <c r="M322" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -73817,12 +74537,20 @@
       <c r="I323" s="4">
         <v>17</v>
       </c>
-      <c r="J323" s="19"/>
+      <c r="J323" s="5">
+        <v>81</v>
+      </c>
       <c r="K323" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="L323">
+        <v>3</v>
+      </c>
+      <c r="M323" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -73848,12 +74576,20 @@
       <c r="I324" s="4">
         <v>0</v>
       </c>
-      <c r="J324" s="19"/>
+      <c r="J324" s="5">
+        <v>81</v>
+      </c>
       <c r="K324" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="L324">
+        <v>8</v>
+      </c>
+      <c r="M324" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -73879,12 +74615,20 @@
       <c r="I325" s="4">
         <v>0</v>
       </c>
-      <c r="J325" s="19"/>
+      <c r="J325" s="5">
+        <v>97</v>
+      </c>
       <c r="K325" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="L325">
+        <v>7</v>
+      </c>
+      <c r="M325" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -73910,12 +74654,20 @@
       <c r="I326" s="4">
         <v>0</v>
       </c>
-      <c r="J326" s="19"/>
+      <c r="J326" s="5">
+        <v>81</v>
+      </c>
       <c r="K326" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="L326">
+        <v>8</v>
+      </c>
+      <c r="M326" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -73943,12 +74695,20 @@
       <c r="I327" s="4">
         <v>24</v>
       </c>
-      <c r="J327" s="19"/>
+      <c r="J327" s="5">
+        <v>81</v>
+      </c>
       <c r="K327" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:11">
+      <c r="L327">
+        <v>6</v>
+      </c>
+      <c r="M327" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -73976,12 +74736,20 @@
       <c r="I328" s="4">
         <v>21</v>
       </c>
-      <c r="J328" s="19"/>
+      <c r="J328" s="5">
+        <v>86</v>
+      </c>
       <c r="K328" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="L328">
+        <v>2</v>
+      </c>
+      <c r="M328" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -74007,12 +74775,20 @@
       <c r="I329" s="4">
         <v>0</v>
       </c>
-      <c r="J329" s="19"/>
+      <c r="J329" s="19">
+        <v>62</v>
+      </c>
       <c r="K329" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="L329">
+        <v>8</v>
+      </c>
+      <c r="M329" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -74040,12 +74816,20 @@
       <c r="I330" s="4">
         <v>17</v>
       </c>
-      <c r="J330" s="19"/>
+      <c r="J330" s="5">
+        <v>85</v>
+      </c>
       <c r="K330" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="L330">
+        <v>2</v>
+      </c>
+      <c r="M330" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" s="4">
         <v>330</v>
       </c>
@@ -74073,12 +74857,20 @@
       <c r="I331" s="4">
         <v>22</v>
       </c>
-      <c r="J331" s="19"/>
+      <c r="J331" s="5">
+        <v>88</v>
+      </c>
       <c r="K331" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:11">
+      <c r="L331">
+        <v>3</v>
+      </c>
+      <c r="M331" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -74104,12 +74896,20 @@
       <c r="I332" s="4">
         <v>0</v>
       </c>
-      <c r="J332" s="19"/>
+      <c r="J332" s="5">
+        <v>88</v>
+      </c>
       <c r="K332" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="L332">
+        <v>7</v>
+      </c>
+      <c r="M332" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -74137,12 +74937,20 @@
       <c r="I333" s="4">
         <v>16</v>
       </c>
-      <c r="J333" s="19"/>
+      <c r="J333" s="19">
+        <v>36</v>
+      </c>
       <c r="K333" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="334" spans="1:11">
+      <c r="L333">
+        <v>8</v>
+      </c>
+      <c r="M333" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -74168,12 +74976,20 @@
       <c r="I334" s="4">
         <v>0</v>
       </c>
-      <c r="J334" s="19"/>
+      <c r="J334" s="5">
+        <v>81</v>
+      </c>
       <c r="K334" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="335" spans="1:11">
+      <c r="L334">
+        <v>8</v>
+      </c>
+      <c r="M334" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335" s="4">
         <v>334</v>
       </c>
@@ -74201,12 +75017,20 @@
       <c r="I335" s="4">
         <v>23</v>
       </c>
-      <c r="J335" s="19"/>
+      <c r="J335" s="5">
+        <v>88</v>
+      </c>
       <c r="K335" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:11">
+      <c r="L335">
+        <v>2</v>
+      </c>
+      <c r="M335" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13">
       <c r="A336" s="4">
         <v>335</v>
       </c>
@@ -74232,12 +75056,20 @@
       <c r="I336" s="4">
         <v>0</v>
       </c>
-      <c r="J336" s="19"/>
+      <c r="J336" s="5">
+        <v>41</v>
+      </c>
       <c r="K336" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="337" spans="1:11">
+      <c r="L336">
+        <v>7</v>
+      </c>
+      <c r="M336" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13">
       <c r="A337" s="4">
         <v>336</v>
       </c>
@@ -74265,12 +75097,20 @@
       <c r="I337" s="4">
         <v>16</v>
       </c>
-      <c r="J337" s="19"/>
+      <c r="J337" s="5">
+        <v>85</v>
+      </c>
       <c r="K337" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="338" spans="1:11">
+      <c r="L337">
+        <v>8</v>
+      </c>
+      <c r="M337" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -74298,12 +75138,20 @@
       <c r="I338" s="4">
         <v>16</v>
       </c>
-      <c r="J338" s="19"/>
+      <c r="J338" s="5">
+        <v>85</v>
+      </c>
       <c r="K338" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="339" spans="1:11">
+      <c r="L338">
+        <v>8</v>
+      </c>
+      <c r="M338" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
       <c r="A339" s="4">
         <v>338</v>
       </c>
@@ -74329,12 +75177,20 @@
       <c r="I339" s="4">
         <v>0</v>
       </c>
-      <c r="J339" s="19"/>
+      <c r="J339" s="5">
+        <v>81</v>
+      </c>
       <c r="K339" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="1:11">
+      <c r="L339">
+        <v>8</v>
+      </c>
+      <c r="M339" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -74360,12 +75216,20 @@
       <c r="I340" s="4">
         <v>0</v>
       </c>
-      <c r="J340" s="19"/>
+      <c r="J340" s="5">
+        <v>48</v>
+      </c>
       <c r="K340" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="341" spans="1:11">
+      <c r="L340">
+        <v>8</v>
+      </c>
+      <c r="M340" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
       <c r="A341" s="4">
         <v>340</v>
       </c>
@@ -74393,12 +75257,20 @@
       <c r="I341" s="4">
         <v>24</v>
       </c>
-      <c r="J341" s="19"/>
+      <c r="J341" s="5">
+        <v>78</v>
+      </c>
       <c r="K341" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:11">
+      <c r="L341">
+        <v>6</v>
+      </c>
+      <c r="M341" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -74424,12 +75296,20 @@
       <c r="I342" s="4">
         <v>0</v>
       </c>
-      <c r="J342" s="19"/>
+      <c r="J342" s="5">
+        <v>94</v>
+      </c>
       <c r="K342" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:11">
+      <c r="L342">
+        <v>6</v>
+      </c>
+      <c r="M342" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
       <c r="A343" s="4">
         <v>342</v>
       </c>
@@ -74455,12 +75335,20 @@
       <c r="I343" s="4">
         <v>0</v>
       </c>
-      <c r="J343" s="19"/>
+      <c r="J343" s="5">
+        <v>60</v>
+      </c>
       <c r="K343" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="344" spans="1:11">
+      <c r="L343">
+        <v>8</v>
+      </c>
+      <c r="M343" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344" s="4">
         <v>343</v>
       </c>
@@ -74486,12 +75374,20 @@
       <c r="I344" s="4">
         <v>0</v>
       </c>
-      <c r="J344" s="19"/>
+      <c r="J344" s="5">
+        <v>98</v>
+      </c>
       <c r="K344" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="345" spans="1:11">
+      <c r="L344">
+        <v>8</v>
+      </c>
+      <c r="M344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345" s="4">
         <v>344</v>
       </c>
@@ -74517,12 +75413,20 @@
       <c r="I345" s="4">
         <v>0</v>
       </c>
-      <c r="J345" s="19"/>
+      <c r="J345" s="5">
+        <v>81</v>
+      </c>
       <c r="K345" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:11">
+      <c r="L345">
+        <v>5</v>
+      </c>
+      <c r="M345" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -74550,12 +75454,20 @@
       <c r="I346" s="4">
         <v>17</v>
       </c>
-      <c r="J346" s="19"/>
+      <c r="J346" s="5">
+        <v>94</v>
+      </c>
       <c r="K346" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11">
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347" s="4">
         <v>346</v>
       </c>
@@ -74583,12 +75495,20 @@
       <c r="I347" s="4">
         <v>16</v>
       </c>
-      <c r="J347" s="19"/>
+      <c r="J347" s="5">
+        <v>85</v>
+      </c>
       <c r="K347" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="348" spans="1:11">
+      <c r="L347">
+        <v>8</v>
+      </c>
+      <c r="M347" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -74614,12 +75534,20 @@
       <c r="I348" s="4">
         <v>0</v>
       </c>
-      <c r="J348" s="19"/>
+      <c r="J348" s="5">
+        <v>94</v>
+      </c>
       <c r="K348" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="349" spans="1:11">
+      <c r="L348">
+        <v>7</v>
+      </c>
+      <c r="M348" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
       <c r="A349" s="4">
         <v>348</v>
       </c>
@@ -74645,12 +75573,20 @@
       <c r="I349" s="4">
         <v>0</v>
       </c>
-      <c r="J349" s="19"/>
+      <c r="J349" s="5">
+        <v>48</v>
+      </c>
       <c r="K349" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="350" spans="1:11">
+      <c r="L349">
+        <v>7</v>
+      </c>
+      <c r="M349" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -74676,12 +75612,20 @@
       <c r="I350" s="4">
         <v>0</v>
       </c>
-      <c r="J350" s="19"/>
+      <c r="J350" s="5">
+        <v>63</v>
+      </c>
       <c r="K350" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="1:11">
+      <c r="L350">
+        <v>9</v>
+      </c>
+      <c r="M350" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
       <c r="A351" s="4">
         <v>350</v>
       </c>
@@ -74709,12 +75653,20 @@
       <c r="I351" s="4">
         <v>21</v>
       </c>
-      <c r="J351" s="19"/>
+      <c r="J351" s="5">
+        <v>86</v>
+      </c>
       <c r="K351" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="352" spans="1:11">
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -74742,12 +75694,20 @@
       <c r="I352" s="4">
         <v>17</v>
       </c>
-      <c r="J352" s="19"/>
+      <c r="J352" s="5">
+        <v>63</v>
+      </c>
       <c r="K352" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="353" spans="1:11">
+      <c r="L352">
+        <v>3</v>
+      </c>
+      <c r="M352" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
       <c r="A353" s="4">
         <v>352</v>
       </c>
@@ -74773,12 +75733,20 @@
       <c r="I353" s="4">
         <v>0</v>
       </c>
-      <c r="J353" s="19"/>
+      <c r="J353" s="5">
+        <v>48</v>
+      </c>
       <c r="K353" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:11">
+      <c r="L353">
+        <v>6</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -74804,12 +75772,20 @@
       <c r="I354" s="4">
         <v>0</v>
       </c>
-      <c r="J354" s="19"/>
+      <c r="J354" s="5">
+        <v>94</v>
+      </c>
       <c r="K354" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="355" spans="1:11">
+      <c r="L354">
+        <v>7</v>
+      </c>
+      <c r="M354" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
       <c r="A355" s="4">
         <v>354</v>
       </c>
@@ -74837,12 +75813,20 @@
       <c r="I355" s="4">
         <v>27</v>
       </c>
-      <c r="J355" s="19"/>
+      <c r="J355" s="5">
+        <v>94</v>
+      </c>
       <c r="K355" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="356" spans="1:11">
+      <c r="L355">
+        <v>4</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -74870,12 +75854,20 @@
       <c r="I356" s="4">
         <v>17</v>
       </c>
-      <c r="J356" s="19"/>
+      <c r="J356" s="5">
+        <v>85</v>
+      </c>
       <c r="K356" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="357" spans="1:11">
+      <c r="L356">
+        <v>9</v>
+      </c>
+      <c r="M356" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
       <c r="A357" s="4">
         <v>356</v>
       </c>
@@ -74903,12 +75895,20 @@
       <c r="I357" s="4">
         <v>28</v>
       </c>
-      <c r="J357" s="19"/>
+      <c r="J357" s="5">
+        <v>81</v>
+      </c>
       <c r="K357" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="358" spans="1:11">
+      <c r="L357">
+        <v>8</v>
+      </c>
+      <c r="M357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -74934,12 +75934,20 @@
       <c r="I358" s="4">
         <v>0</v>
       </c>
-      <c r="J358" s="19"/>
+      <c r="J358" s="5">
+        <v>81</v>
+      </c>
       <c r="K358" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="359" spans="1:11">
+      <c r="L358">
+        <v>8</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359" s="4">
         <v>358</v>
       </c>
@@ -74967,12 +75975,20 @@
       <c r="I359" s="4">
         <v>28</v>
       </c>
-      <c r="J359" s="19"/>
+      <c r="J359" s="5">
+        <v>43</v>
+      </c>
       <c r="K359" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="360" spans="1:11">
+      <c r="L359">
+        <v>3</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
       <c r="A360" s="4">
         <v>359</v>
       </c>
@@ -74998,12 +76014,20 @@
       <c r="I360" s="4">
         <v>0</v>
       </c>
-      <c r="J360" s="19"/>
+      <c r="J360" s="5">
+        <v>97</v>
+      </c>
       <c r="K360" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="361" spans="1:11">
+      <c r="L360">
+        <v>9</v>
+      </c>
+      <c r="M360" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361" s="4">
         <v>360</v>
       </c>
@@ -75029,12 +76053,20 @@
       <c r="I361" s="4">
         <v>0</v>
       </c>
-      <c r="J361" s="19"/>
+      <c r="J361" s="5">
+        <v>104</v>
+      </c>
       <c r="K361" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="362" spans="1:11">
+      <c r="L361">
+        <v>8</v>
+      </c>
+      <c r="M361" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362" s="4">
         <v>361</v>
       </c>
@@ -75060,12 +76092,20 @@
       <c r="I362" s="4">
         <v>0</v>
       </c>
-      <c r="J362" s="19"/>
+      <c r="J362" s="5">
+        <v>85</v>
+      </c>
       <c r="K362" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="363" spans="1:11">
+      <c r="L362">
+        <v>5</v>
+      </c>
+      <c r="M362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363" s="4">
         <v>362</v>
       </c>
@@ -75091,12 +76131,20 @@
       <c r="I363" s="4">
         <v>0</v>
       </c>
-      <c r="J363" s="19"/>
+      <c r="J363" s="5">
+        <v>56</v>
+      </c>
       <c r="K363" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="364" spans="1:11">
+      <c r="L363">
+        <v>7</v>
+      </c>
+      <c r="M363" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -75122,12 +76170,20 @@
       <c r="I364" s="4">
         <v>0</v>
       </c>
-      <c r="J364" s="4"/>
+      <c r="J364" s="4">
+        <v>77</v>
+      </c>
       <c r="K364" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="365" spans="1:11">
+      <c r="L364">
+        <v>9</v>
+      </c>
+      <c r="M364" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365" s="4">
         <v>364</v>
       </c>
@@ -75155,12 +76211,20 @@
       <c r="I365" s="4">
         <v>22</v>
       </c>
-      <c r="J365" s="19"/>
+      <c r="J365" s="5">
+        <v>88</v>
+      </c>
       <c r="K365" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="366" spans="1:11">
+      <c r="L365">
+        <v>3</v>
+      </c>
+      <c r="M365" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
       <c r="A366" s="4">
         <v>365</v>
       </c>
@@ -75186,12 +76250,20 @@
       <c r="I366" s="4">
         <v>0</v>
       </c>
-      <c r="J366" s="19"/>
+      <c r="J366" s="5">
+        <v>52</v>
+      </c>
       <c r="K366" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="367" spans="1:11">
+      <c r="L366">
+        <v>9</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367" s="4">
         <v>366</v>
       </c>
@@ -75217,12 +76289,20 @@
       <c r="I367" s="4">
         <v>0</v>
       </c>
-      <c r="J367" s="4"/>
+      <c r="J367" s="4">
+        <v>89</v>
+      </c>
       <c r="K367" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="368" spans="1:11">
+      <c r="L367">
+        <v>7</v>
+      </c>
+      <c r="M367" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
       <c r="A368" s="4">
         <v>367</v>
       </c>
@@ -75248,12 +76328,20 @@
       <c r="I368" s="4">
         <v>0</v>
       </c>
-      <c r="J368" s="19"/>
+      <c r="J368" s="5">
+        <v>41</v>
+      </c>
       <c r="K368" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="369" spans="1:11">
+      <c r="L368">
+        <v>7</v>
+      </c>
+      <c r="M368" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
       <c r="A369" s="4">
         <v>368</v>
       </c>
@@ -75279,12 +76367,20 @@
       <c r="I369" s="4">
         <v>0</v>
       </c>
-      <c r="J369" s="19"/>
+      <c r="J369" s="5">
+        <v>81</v>
+      </c>
       <c r="K369" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="370" spans="1:11">
+      <c r="L369">
+        <v>7</v>
+      </c>
+      <c r="M369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370" s="4">
         <v>369</v>
       </c>
@@ -75310,12 +76406,20 @@
       <c r="I370" s="4">
         <v>0</v>
       </c>
-      <c r="J370" s="19"/>
+      <c r="J370" s="5">
+        <v>52</v>
+      </c>
       <c r="K370" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:11">
+      <c r="L370">
+        <v>7</v>
+      </c>
+      <c r="M370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371" s="4">
         <v>370</v>
       </c>
@@ -75341,12 +76445,20 @@
       <c r="I371" s="4">
         <v>0</v>
       </c>
-      <c r="J371" s="19"/>
+      <c r="J371" s="5">
+        <v>52</v>
+      </c>
       <c r="K371" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="372" spans="1:11">
+      <c r="L371">
+        <v>9</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -75374,12 +76486,20 @@
       <c r="I372" s="4">
         <v>16</v>
       </c>
-      <c r="J372" s="19"/>
+      <c r="J372" s="5">
+        <v>37</v>
+      </c>
       <c r="K372" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:11">
+      <c r="L372">
+        <v>8</v>
+      </c>
+      <c r="M372" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -75407,12 +76527,20 @@
       <c r="I373" s="4">
         <v>17</v>
       </c>
-      <c r="J373" s="19"/>
+      <c r="J373" s="5">
+        <v>97</v>
+      </c>
       <c r="K373" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:11">
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -75438,12 +76566,20 @@
       <c r="I374" s="4">
         <v>0</v>
       </c>
-      <c r="J374" s="19"/>
+      <c r="J374" s="5">
+        <v>48</v>
+      </c>
       <c r="K374" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:11">
+      <c r="L374">
+        <v>7</v>
+      </c>
+      <c r="M374" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375" s="4">
         <v>374</v>
       </c>
@@ -75471,12 +76607,20 @@
       <c r="I375" s="4">
         <v>22</v>
       </c>
-      <c r="J375" s="19"/>
+      <c r="J375" s="5">
+        <v>88</v>
+      </c>
       <c r="K375" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="376" spans="1:11">
+      <c r="L375">
+        <v>3</v>
+      </c>
+      <c r="M375" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -75502,12 +76646,20 @@
       <c r="I376" s="4">
         <v>0</v>
       </c>
-      <c r="J376" s="19"/>
+      <c r="J376" s="5">
+        <v>81</v>
+      </c>
       <c r="K376" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="377" spans="1:11">
+      <c r="L376">
+        <v>7</v>
+      </c>
+      <c r="M376" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377" s="4">
         <v>376</v>
       </c>
@@ -75535,12 +76687,20 @@
       <c r="I377" s="4">
         <v>21</v>
       </c>
-      <c r="J377" s="19"/>
+      <c r="J377" s="5">
+        <v>87</v>
+      </c>
       <c r="K377" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:11">
+      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="M377" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378" s="4">
         <v>377</v>
       </c>
@@ -75566,12 +76726,20 @@
       <c r="I378" s="4">
         <v>0</v>
       </c>
-      <c r="J378" s="19"/>
+      <c r="J378" s="5">
+        <v>81</v>
+      </c>
       <c r="K378" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="379" spans="1:11">
+      <c r="L378">
+        <v>7</v>
+      </c>
+      <c r="M378" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379" s="4">
         <v>378</v>
       </c>
@@ -75597,12 +76765,20 @@
       <c r="I379" s="4">
         <v>0</v>
       </c>
-      <c r="J379" s="19"/>
+      <c r="J379" s="5">
+        <v>81</v>
+      </c>
       <c r="K379" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="380" spans="1:11">
+      <c r="L379">
+        <v>7</v>
+      </c>
+      <c r="M379" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13">
       <c r="A380" s="4">
         <v>379</v>
       </c>
@@ -75630,12 +76806,20 @@
       <c r="I380" s="4">
         <v>21</v>
       </c>
-      <c r="J380" s="19"/>
+      <c r="J380" s="5">
+        <v>94</v>
+      </c>
       <c r="K380" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:11">
+      <c r="L380">
+        <v>4</v>
+      </c>
+      <c r="M380" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -75661,12 +76845,20 @@
       <c r="I381" s="4">
         <v>0</v>
       </c>
-      <c r="J381" s="19"/>
+      <c r="J381" s="5">
+        <v>88</v>
+      </c>
       <c r="K381" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:11">
+      <c r="L381">
+        <v>7</v>
+      </c>
+      <c r="M381" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
       <c r="A382" s="4">
         <v>381</v>
       </c>
@@ -75692,12 +76884,20 @@
       <c r="I382" s="4">
         <v>0</v>
       </c>
-      <c r="J382" s="19"/>
+      <c r="J382" s="5">
+        <v>42</v>
+      </c>
       <c r="K382" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:11">
+      <c r="L382">
+        <v>9</v>
+      </c>
+      <c r="M382" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
       <c r="A383" s="4">
         <v>382</v>
       </c>
@@ -75723,12 +76923,20 @@
       <c r="I383" s="4">
         <v>0</v>
       </c>
-      <c r="J383" s="19"/>
+      <c r="J383" s="5">
+        <v>88</v>
+      </c>
       <c r="K383" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="384" spans="1:11">
+      <c r="L383">
+        <v>9</v>
+      </c>
+      <c r="M383" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13">
       <c r="A384" s="4">
         <v>383</v>
       </c>
@@ -75754,12 +76962,20 @@
       <c r="I384" s="4">
         <v>0</v>
       </c>
-      <c r="J384" s="19"/>
+      <c r="J384" s="5">
+        <v>74</v>
+      </c>
       <c r="K384" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:11">
+      <c r="L384">
+        <v>8</v>
+      </c>
+      <c r="M384" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
       <c r="A385" s="4">
         <v>384</v>
       </c>
@@ -75785,12 +77001,20 @@
       <c r="I385" s="4">
         <v>0</v>
       </c>
-      <c r="J385" s="19"/>
+      <c r="J385" s="5">
+        <v>94</v>
+      </c>
       <c r="K385" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="386" spans="1:11">
+      <c r="L385">
+        <v>7</v>
+      </c>
+      <c r="M385" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13">
       <c r="A386" s="4">
         <v>385</v>
       </c>
@@ -75818,12 +77042,20 @@
       <c r="I386" s="4">
         <v>16</v>
       </c>
-      <c r="J386" s="19"/>
+      <c r="J386" s="5">
+        <v>85</v>
+      </c>
       <c r="K386" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="387" spans="1:11">
+      <c r="L386">
+        <v>8</v>
+      </c>
+      <c r="M386" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -75849,12 +77081,20 @@
       <c r="I387" s="4">
         <v>0</v>
       </c>
-      <c r="J387" s="19"/>
+      <c r="J387" s="5">
+        <v>99</v>
+      </c>
       <c r="K387" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:11">
+      <c r="L387">
+        <v>5</v>
+      </c>
+      <c r="M387" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13">
       <c r="A388" s="4">
         <v>387</v>
       </c>
@@ -75880,12 +77120,20 @@
       <c r="I388" s="4">
         <v>0</v>
       </c>
-      <c r="J388" s="19"/>
+      <c r="J388" s="5">
+        <v>94</v>
+      </c>
       <c r="K388" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="389" spans="1:11">
+      <c r="L388">
+        <v>6</v>
+      </c>
+      <c r="M388" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13">
       <c r="A389" s="4">
         <v>388</v>
       </c>
@@ -75913,12 +77161,20 @@
       <c r="I389" s="4">
         <v>28</v>
       </c>
-      <c r="J389" s="19"/>
+      <c r="J389" s="5">
+        <v>74</v>
+      </c>
       <c r="K389" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="390" spans="1:11">
+      <c r="L389">
+        <v>7</v>
+      </c>
+      <c r="M389" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13">
       <c r="A390" s="4">
         <v>389</v>
       </c>
@@ -75946,12 +77202,20 @@
       <c r="I390" s="4">
         <v>17</v>
       </c>
-      <c r="J390" s="19"/>
+      <c r="J390" s="5">
+        <v>112</v>
+      </c>
       <c r="K390" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:11">
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -75977,12 +77241,20 @@
       <c r="I391" s="4">
         <v>0</v>
       </c>
-      <c r="J391" s="19"/>
+      <c r="J391" s="5">
+        <v>87</v>
+      </c>
       <c r="K391" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:11">
+      <c r="L391">
+        <v>5</v>
+      </c>
+      <c r="M391" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13">
       <c r="A392" s="4">
         <v>391</v>
       </c>
@@ -76008,12 +77280,20 @@
       <c r="I392" s="4">
         <v>0</v>
       </c>
-      <c r="J392" s="19"/>
+      <c r="J392" s="5">
+        <v>81</v>
+      </c>
       <c r="K392" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="393" spans="1:11">
+      <c r="L392">
+        <v>8</v>
+      </c>
+      <c r="M392" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -76039,12 +77319,20 @@
       <c r="I393" s="4">
         <v>0</v>
       </c>
-      <c r="J393" s="19"/>
+      <c r="J393" s="19">
+        <v>111</v>
+      </c>
       <c r="K393" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="394" spans="1:11">
+      <c r="L393">
+        <v>5</v>
+      </c>
+      <c r="M393" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13">
       <c r="A394" s="4">
         <v>393</v>
       </c>
@@ -76070,12 +77358,20 @@
       <c r="I394" s="4">
         <v>0</v>
       </c>
-      <c r="J394" s="19"/>
+      <c r="J394" s="5">
+        <v>78</v>
+      </c>
       <c r="K394" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:11">
+      <c r="L394">
+        <v>4</v>
+      </c>
+      <c r="M394" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395" s="4">
         <v>394</v>
       </c>
@@ -76103,12 +77399,20 @@
       <c r="I395" s="4">
         <v>24</v>
       </c>
-      <c r="J395" s="19"/>
+      <c r="J395" s="5">
+        <v>85</v>
+      </c>
       <c r="K395" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="396" spans="1:11">
+      <c r="L395">
+        <v>9</v>
+      </c>
+      <c r="M395" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
       <c r="A396" s="4">
         <v>395</v>
       </c>
@@ -76134,12 +77438,20 @@
       <c r="I396" s="4">
         <v>0</v>
       </c>
-      <c r="J396" s="19"/>
+      <c r="J396" s="19">
+        <v>70</v>
+      </c>
       <c r="K396" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="397" spans="1:11">
+      <c r="L396">
+        <v>8</v>
+      </c>
+      <c r="M396" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
       <c r="A397" s="4">
         <v>396</v>
       </c>
@@ -76167,12 +77479,20 @@
       <c r="I397" s="4">
         <v>17</v>
       </c>
-      <c r="J397" s="19"/>
+      <c r="J397" s="5">
+        <v>85</v>
+      </c>
       <c r="K397" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="398" spans="1:11">
+      <c r="L397">
+        <v>9</v>
+      </c>
+      <c r="M397" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
       <c r="A398" s="4">
         <v>397</v>
       </c>
@@ -76200,12 +77520,20 @@
       <c r="I398" s="4">
         <v>17</v>
       </c>
-      <c r="J398" s="19"/>
+      <c r="J398" s="19">
+        <v>68</v>
+      </c>
       <c r="K398" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:11">
+      <c r="L398">
+        <v>3</v>
+      </c>
+      <c r="M398" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
       <c r="A399" s="4">
         <v>398</v>
       </c>
@@ -76231,12 +77559,20 @@
       <c r="I399" s="4">
         <v>0</v>
       </c>
-      <c r="J399" s="19"/>
+      <c r="J399" s="5">
+        <v>86</v>
+      </c>
       <c r="K399" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="400" spans="1:11">
+      <c r="L399">
+        <v>7</v>
+      </c>
+      <c r="M399" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400" s="4">
         <v>399</v>
       </c>
@@ -76262,12 +77598,20 @@
       <c r="I400" s="4">
         <v>0</v>
       </c>
-      <c r="J400" s="19"/>
+      <c r="J400" s="5">
+        <v>81</v>
+      </c>
       <c r="K400" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="401" spans="1:11">
+      <c r="L400">
+        <v>7</v>
+      </c>
+      <c r="M400" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13">
       <c r="A401" s="4">
         <v>400</v>
       </c>
@@ -76293,12 +77637,20 @@
       <c r="I401" s="4">
         <v>0</v>
       </c>
-      <c r="J401" s="19"/>
+      <c r="J401" s="5">
+        <v>37</v>
+      </c>
       <c r="K401" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="402" spans="1:11">
+      <c r="L401">
+        <v>8</v>
+      </c>
+      <c r="M401" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13">
       <c r="A402" s="4">
         <v>401</v>
       </c>
@@ -76324,12 +77676,20 @@
       <c r="I402" s="4">
         <v>0</v>
       </c>
-      <c r="J402" s="19"/>
+      <c r="J402" s="5">
+        <v>85</v>
+      </c>
       <c r="K402" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="403" spans="1:11">
+      <c r="L402">
+        <v>7</v>
+      </c>
+      <c r="M402" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13">
       <c r="A403" s="4">
         <v>402</v>
       </c>
@@ -76355,12 +77715,20 @@
       <c r="I403" s="4">
         <v>0</v>
       </c>
-      <c r="J403" s="19"/>
+      <c r="J403" s="19">
+        <v>80</v>
+      </c>
       <c r="K403" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:11">
+      <c r="L403">
+        <v>7</v>
+      </c>
+      <c r="M403" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13">
       <c r="A404" s="4">
         <v>403</v>
       </c>
@@ -76386,12 +77754,20 @@
       <c r="I404" s="4">
         <v>0</v>
       </c>
-      <c r="J404" s="19"/>
+      <c r="J404" s="5">
+        <v>52</v>
+      </c>
       <c r="K404" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="405" spans="1:11">
+      <c r="L404">
+        <v>8</v>
+      </c>
+      <c r="M404" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13">
       <c r="A405" s="4">
         <v>404</v>
       </c>
@@ -76419,12 +77795,20 @@
       <c r="I405" s="4">
         <v>23</v>
       </c>
-      <c r="J405" s="19"/>
+      <c r="J405" s="5">
+        <v>88</v>
+      </c>
       <c r="K405" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:11">
+      <c r="L405">
+        <v>2</v>
+      </c>
+      <c r="M405" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13">
       <c r="A406" s="4">
         <v>405</v>
       </c>
@@ -76452,12 +77836,20 @@
       <c r="I406" s="4">
         <v>17</v>
       </c>
-      <c r="J406" s="19"/>
+      <c r="J406" s="5">
+        <v>48</v>
+      </c>
       <c r="K406" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="407" spans="1:11">
+      <c r="L406">
+        <v>9</v>
+      </c>
+      <c r="M406" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -76485,12 +77877,20 @@
       <c r="I407" s="4">
         <v>24</v>
       </c>
-      <c r="J407" s="19"/>
+      <c r="J407" s="5">
+        <v>78</v>
+      </c>
       <c r="K407" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:11">
+      <c r="L407">
+        <v>6</v>
+      </c>
+      <c r="M407" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13">
       <c r="A408" s="4">
         <v>407</v>
       </c>
@@ -76516,12 +77916,20 @@
       <c r="I408" s="4">
         <v>0</v>
       </c>
-      <c r="J408" s="19"/>
+      <c r="J408" s="5">
+        <v>94</v>
+      </c>
       <c r="K408" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="409" spans="1:11">
+      <c r="L408">
+        <v>7</v>
+      </c>
+      <c r="M408" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -76549,12 +77957,20 @@
       <c r="I409" s="4">
         <v>23</v>
       </c>
-      <c r="J409" s="19"/>
+      <c r="J409" s="5">
+        <v>72</v>
+      </c>
       <c r="K409" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="410" spans="1:11">
+      <c r="L409">
+        <v>3</v>
+      </c>
+      <c r="M409" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13">
       <c r="A410" s="4">
         <v>409</v>
       </c>
@@ -76580,12 +77996,20 @@
       <c r="I410" s="4">
         <v>0</v>
       </c>
-      <c r="J410" s="19"/>
+      <c r="J410" s="19">
+        <v>31</v>
+      </c>
       <c r="K410" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="411" spans="1:11">
+      <c r="L410">
+        <v>6</v>
+      </c>
+      <c r="M410" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13">
       <c r="A411" s="16">
         <v>410</v>
       </c>
@@ -76613,12 +78037,20 @@
       <c r="I411" s="16">
         <v>23</v>
       </c>
-      <c r="J411" s="17"/>
+      <c r="J411" s="5">
+        <v>83</v>
+      </c>
       <c r="K411" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:11">
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13">
       <c r="A412" s="16">
         <v>411</v>
       </c>
@@ -76646,12 +78078,20 @@
       <c r="I412" s="16">
         <v>23</v>
       </c>
-      <c r="J412" s="17"/>
+      <c r="J412" s="5">
+        <v>86</v>
+      </c>
       <c r="K412" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:11">
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13">
       <c r="A413" s="16">
         <v>412</v>
       </c>
@@ -76679,12 +78119,20 @@
       <c r="I413" s="16">
         <v>17</v>
       </c>
-      <c r="J413" s="17"/>
+      <c r="J413" s="5">
+        <v>94</v>
+      </c>
       <c r="K413" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:11">
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13">
       <c r="A414" s="16">
         <v>413</v>
       </c>
@@ -76710,12 +78158,20 @@
       <c r="I414" s="16">
         <v>0</v>
       </c>
-      <c r="J414" s="17"/>
+      <c r="J414" s="5">
+        <v>85</v>
+      </c>
       <c r="K414" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="415" spans="1:11">
+      <c r="L414">
+        <v>5</v>
+      </c>
+      <c r="M414" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13">
       <c r="A415" s="16">
         <v>414</v>
       </c>
@@ -76743,12 +78199,20 @@
       <c r="I415" s="16">
         <v>24</v>
       </c>
-      <c r="J415" s="17"/>
+      <c r="J415" s="5">
+        <v>71</v>
+      </c>
       <c r="K415" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:11">
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13">
       <c r="A416" s="16">
         <v>415</v>
       </c>
@@ -76774,12 +78238,20 @@
       <c r="I416" s="16">
         <v>0</v>
       </c>
-      <c r="J416" s="17"/>
+      <c r="J416" s="5">
+        <v>87</v>
+      </c>
       <c r="K416" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="417" spans="1:11">
+      <c r="L416">
+        <v>8</v>
+      </c>
+      <c r="M416" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13">
       <c r="A417" s="16">
         <v>416</v>
       </c>
@@ -76807,12 +78279,20 @@
       <c r="I417" s="16">
         <v>23</v>
       </c>
-      <c r="J417" s="17"/>
+      <c r="J417" s="5">
+        <v>81</v>
+      </c>
       <c r="K417" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="418" spans="1:11">
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
       <c r="A418" s="16">
         <v>417</v>
       </c>
@@ -76840,12 +78320,20 @@
       <c r="I418" s="16">
         <v>28</v>
       </c>
-      <c r="J418" s="17"/>
+      <c r="J418" s="5">
+        <v>81</v>
+      </c>
       <c r="K418" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="419" spans="1:11">
+      <c r="L418">
+        <v>3</v>
+      </c>
+      <c r="M418" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
       <c r="A419" s="16">
         <v>418</v>
       </c>
@@ -76873,12 +78361,20 @@
       <c r="I419" s="16">
         <v>21</v>
       </c>
-      <c r="J419" s="17"/>
+      <c r="J419" s="5">
+        <v>81</v>
+      </c>
       <c r="K419" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:11">
+      <c r="L419">
+        <v>2</v>
+      </c>
+      <c r="M419" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13">
       <c r="A420" s="16">
         <v>419</v>
       </c>
@@ -76906,12 +78402,20 @@
       <c r="I420" s="16">
         <v>21</v>
       </c>
-      <c r="J420" s="17"/>
+      <c r="J420" s="5">
+        <v>86</v>
+      </c>
       <c r="K420" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="1:11">
+      <c r="L420">
+        <v>6</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
       <c r="A421" s="16">
         <v>420</v>
       </c>
@@ -76939,12 +78443,20 @@
       <c r="I421" s="16">
         <v>17</v>
       </c>
-      <c r="J421" s="17"/>
+      <c r="J421" s="5">
+        <v>81</v>
+      </c>
       <c r="K421" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:11">
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
       <c r="A422" s="16">
         <v>421</v>
       </c>
@@ -76972,12 +78484,20 @@
       <c r="I422" s="16">
         <v>21</v>
       </c>
-      <c r="J422" s="17"/>
+      <c r="J422" s="5">
+        <v>97</v>
+      </c>
       <c r="K422" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="423" spans="1:11">
+      <c r="L422">
+        <v>2</v>
+      </c>
+      <c r="M422" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
       <c r="A423" s="16">
         <v>422</v>
       </c>
@@ -77005,12 +78525,20 @@
       <c r="I423" s="16">
         <v>21</v>
       </c>
-      <c r="J423" s="17"/>
+      <c r="J423" s="5">
+        <v>98</v>
+      </c>
       <c r="K423" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="424" spans="1:11">
+      <c r="L423">
+        <v>2</v>
+      </c>
+      <c r="M423" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
       <c r="A424" s="16">
         <v>423</v>
       </c>
@@ -77036,12 +78564,20 @@
       <c r="I424" s="16">
         <v>0</v>
       </c>
-      <c r="J424" s="17"/>
+      <c r="J424" s="5">
+        <v>98</v>
+      </c>
       <c r="K424" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:11">
+      <c r="L424">
+        <v>4</v>
+      </c>
+      <c r="M424" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
       <c r="A425" s="16">
         <v>424</v>
       </c>
@@ -77069,12 +78605,20 @@
       <c r="I425" s="16">
         <v>23</v>
       </c>
-      <c r="J425" s="17"/>
+      <c r="J425" s="5">
+        <v>71</v>
+      </c>
       <c r="K425" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:11">
+      <c r="L425">
+        <v>1</v>
+      </c>
+      <c r="M425" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
       <c r="A426" s="16">
         <v>425</v>
       </c>
@@ -77100,12 +78644,20 @@
       <c r="I426" s="16">
         <v>0</v>
       </c>
-      <c r="J426" s="17"/>
+      <c r="J426" s="5">
+        <v>72</v>
+      </c>
       <c r="K426" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:11">
+      <c r="L426">
+        <v>4</v>
+      </c>
+      <c r="M426" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
       <c r="A427" s="16">
         <v>426</v>
       </c>
@@ -77131,12 +78683,20 @@
       <c r="I427" s="16">
         <v>0</v>
       </c>
-      <c r="J427" s="17"/>
+      <c r="J427" s="5">
+        <v>72</v>
+      </c>
       <c r="K427" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:11">
+      <c r="L427">
+        <v>7</v>
+      </c>
+      <c r="M427" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
       <c r="A428" s="16">
         <v>427</v>
       </c>
@@ -77164,12 +78724,20 @@
       <c r="I428" s="16">
         <v>17</v>
       </c>
-      <c r="J428" s="17"/>
+      <c r="J428" s="5">
+        <v>81</v>
+      </c>
       <c r="K428" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:11">
+      <c r="L428">
+        <v>1</v>
+      </c>
+      <c r="M428" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
       <c r="A429" s="16">
         <v>428</v>
       </c>
@@ -77197,12 +78765,20 @@
       <c r="I429" s="17">
         <v>18</v>
       </c>
-      <c r="J429" s="17"/>
+      <c r="J429" s="5">
+        <v>94</v>
+      </c>
       <c r="K429" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="430" spans="1:11">
+      <c r="L429">
+        <v>2</v>
+      </c>
+      <c r="M429" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13">
       <c r="A430" s="16">
         <v>429</v>
       </c>
@@ -77230,12 +78806,20 @@
       <c r="I430" s="16">
         <v>21</v>
       </c>
-      <c r="J430" s="17"/>
+      <c r="J430" s="5">
+        <v>67</v>
+      </c>
       <c r="K430" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:11">
+      <c r="L430">
+        <v>2</v>
+      </c>
+      <c r="M430" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13">
       <c r="A431" s="16">
         <v>430</v>
       </c>
@@ -77263,12 +78847,20 @@
       <c r="I431" s="16">
         <v>21</v>
       </c>
-      <c r="J431" s="17"/>
+      <c r="J431" s="5">
+        <v>60</v>
+      </c>
       <c r="K431" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="432" spans="1:11">
+      <c r="L431">
+        <v>2</v>
+      </c>
+      <c r="M431" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13">
       <c r="A432" s="16">
         <v>431</v>
       </c>
@@ -77296,12 +78888,20 @@
       <c r="I432" s="16">
         <v>22</v>
       </c>
-      <c r="J432" s="17"/>
+      <c r="J432" s="5">
+        <v>55</v>
+      </c>
       <c r="K432" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:11">
+      <c r="L432">
+        <v>1</v>
+      </c>
+      <c r="M432" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13">
       <c r="A433" s="16">
         <v>432</v>
       </c>
@@ -77329,12 +78929,20 @@
       <c r="I433" s="16">
         <v>17</v>
       </c>
-      <c r="J433" s="17"/>
+      <c r="J433" s="5">
+        <v>81</v>
+      </c>
       <c r="K433" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:11">
+      <c r="L433">
+        <v>1</v>
+      </c>
+      <c r="M433" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13">
       <c r="A434" s="16">
         <v>433</v>
       </c>
@@ -77362,12 +78970,20 @@
       <c r="I434" s="16">
         <v>24</v>
       </c>
-      <c r="J434" s="17"/>
+      <c r="J434" s="5">
+        <v>71</v>
+      </c>
       <c r="K434" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:11">
+      <c r="L434">
+        <v>1</v>
+      </c>
+      <c r="M434" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13">
       <c r="A435" s="16">
         <v>434</v>
       </c>
@@ -77395,12 +79011,20 @@
       <c r="I435" s="16">
         <v>23</v>
       </c>
-      <c r="J435" s="17"/>
+      <c r="J435" s="5">
+        <v>52</v>
+      </c>
       <c r="K435" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:11">
+      <c r="L435">
+        <v>1</v>
+      </c>
+      <c r="M435" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13">
       <c r="A436" s="16">
         <v>435</v>
       </c>
@@ -77428,12 +79052,20 @@
       <c r="I436" s="16">
         <v>28</v>
       </c>
-      <c r="J436" s="17"/>
+      <c r="J436" s="5">
+        <v>110</v>
+      </c>
       <c r="K436" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:11">
+      <c r="L436">
+        <v>1</v>
+      </c>
+      <c r="M436" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13">
       <c r="A437" s="16">
         <v>436</v>
       </c>
@@ -77461,12 +79093,20 @@
       <c r="I437" s="16">
         <v>21</v>
       </c>
-      <c r="J437" s="17"/>
+      <c r="J437" s="5">
+        <v>107</v>
+      </c>
       <c r="K437" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:11">
+      <c r="L437">
+        <v>1</v>
+      </c>
+      <c r="M437" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13">
       <c r="A438" s="16">
         <v>437</v>
       </c>
@@ -77494,12 +79134,20 @@
       <c r="I438" s="16">
         <v>17</v>
       </c>
-      <c r="J438" s="17"/>
+      <c r="J438" s="5">
+        <v>87</v>
+      </c>
       <c r="K438" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:11">
+      <c r="L438">
+        <v>1</v>
+      </c>
+      <c r="M438" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13">
       <c r="A439" s="16">
         <v>438</v>
       </c>
@@ -77527,12 +79175,20 @@
       <c r="I439" s="16">
         <v>21</v>
       </c>
-      <c r="J439" s="17"/>
+      <c r="J439" s="5">
+        <v>86</v>
+      </c>
       <c r="K439" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="440" spans="1:11">
+      <c r="L439">
+        <v>2</v>
+      </c>
+      <c r="M439" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13">
       <c r="A440" s="16">
         <v>439</v>
       </c>
@@ -77560,9 +79216,17 @@
       <c r="I440" s="16">
         <v>23</v>
       </c>
-      <c r="J440" s="17"/>
+      <c r="J440" s="5">
+        <v>85</v>
+      </c>
       <c r="K440" s="17">
         <v>2</v>
+      </c>
+      <c r="L440">
+        <v>2</v>
+      </c>
+      <c r="M440" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
